--- a/04_RawData/main/Questionnaire_Data_Edits_in_yellow.xlsx
+++ b/04_RawData/main/Questionnaire_Data_Edits_in_yellow.xlsx
@@ -3777,9 +3777,6 @@
     <t>D24T05_t2_ED.csv</t>
   </si>
   <si>
-    <t>Ö27K03</t>
-  </si>
-  <si>
     <t>O27K03_t1_ED.csv</t>
   </si>
   <si>
@@ -5563,6 +5560,9 @@
   </si>
   <si>
     <t>Sent follow-up questionnaire via email a day later because the REDCap server was down.</t>
+  </si>
+  <si>
+    <t>O27K03</t>
   </si>
 </sst>
 </file>
@@ -6381,8 +6381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HN451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="EN1" sqref="EN1:EN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="GO378" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="GR400" sqref="GR400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="2" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B2" t="s">
         <v>222</v>
@@ -7494,13 +7494,13 @@
     </row>
     <row r="3" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B3" t="s">
         <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO3" t="s">
         <v>223</v>
@@ -7656,7 +7656,7 @@
         <v>228</v>
       </c>
       <c r="GP3" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="GQ3">
         <v>2</v>
@@ -7664,13 +7664,13 @@
     </row>
     <row r="4" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B4" t="s">
         <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR4" t="s">
         <v>223</v>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="HG4" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="HH4">
         <v>0</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="5" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B5" t="s">
         <v>222</v>
@@ -7776,13 +7776,13 @@
     </row>
     <row r="6" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B6" t="s">
         <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="GP6" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="GQ6">
         <v>0</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="7" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B7" t="s">
         <v>222</v>
@@ -8356,13 +8356,13 @@
     </row>
     <row r="8" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO8" t="s">
         <v>237</v>
@@ -8524,13 +8524,13 @@
     </row>
     <row r="9" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B9" t="s">
         <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR9" t="s">
         <v>237</v>
@@ -8569,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="HG9" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="HH9">
         <v>0</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="10" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B10" t="s">
         <v>222</v>
@@ -8633,13 +8633,13 @@
     </row>
     <row r="11" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B11" t="s">
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="12" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B12" t="s">
         <v>222</v>
@@ -9132,13 +9132,13 @@
     </row>
     <row r="13" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO13" t="s">
         <v>247</v>
@@ -9282,7 +9282,7 @@
         <v>5</v>
       </c>
       <c r="GK13" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="GL13">
         <v>2</v>
@@ -9302,13 +9302,13 @@
     </row>
     <row r="14" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B14" t="s">
         <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR14" t="s">
         <v>247</v>
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="HG14" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="HH14">
         <v>0</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="15" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B15" t="s">
         <v>222</v>
@@ -9411,73 +9411,73 @@
     </row>
     <row r="16" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
       </c>
       <c r="D16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
+        <v>0</v>
+      </c>
+      <c r="EY16">
+        <v>0</v>
+      </c>
+      <c r="EZ16">
+        <v>0</v>
+      </c>
+      <c r="FB16">
+        <v>0</v>
+      </c>
+      <c r="FJ16">
+        <v>0</v>
+      </c>
+      <c r="FR16">
+        <v>0</v>
+      </c>
+      <c r="FZ16">
+        <v>0</v>
+      </c>
+      <c r="GA16">
+        <v>3</v>
+      </c>
+      <c r="GB16">
+        <v>3</v>
+      </c>
+      <c r="GC16">
+        <v>3</v>
+      </c>
+      <c r="GD16">
+        <v>3</v>
+      </c>
+      <c r="GE16">
+        <v>3</v>
+      </c>
+      <c r="GF16">
+        <v>3</v>
+      </c>
+      <c r="GG16">
+        <v>3</v>
+      </c>
+      <c r="GH16">
+        <v>2</v>
+      </c>
+      <c r="GI16">
+        <v>0</v>
+      </c>
+      <c r="GJ16">
+        <v>4</v>
+      </c>
+      <c r="GL16">
+        <v>2</v>
+      </c>
+      <c r="GP16" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="ER16">
-        <v>0</v>
-      </c>
-      <c r="EW16">
-        <v>0</v>
-      </c>
-      <c r="EY16">
-        <v>0</v>
-      </c>
-      <c r="EZ16">
-        <v>0</v>
-      </c>
-      <c r="FB16">
-        <v>0</v>
-      </c>
-      <c r="FJ16">
-        <v>0</v>
-      </c>
-      <c r="FR16">
-        <v>0</v>
-      </c>
-      <c r="FZ16">
-        <v>0</v>
-      </c>
-      <c r="GA16">
-        <v>3</v>
-      </c>
-      <c r="GB16">
-        <v>3</v>
-      </c>
-      <c r="GC16">
-        <v>3</v>
-      </c>
-      <c r="GD16">
-        <v>3</v>
-      </c>
-      <c r="GE16">
-        <v>3</v>
-      </c>
-      <c r="GF16">
-        <v>3</v>
-      </c>
-      <c r="GG16">
-        <v>3</v>
-      </c>
-      <c r="GH16">
-        <v>2</v>
-      </c>
-      <c r="GI16">
-        <v>0</v>
-      </c>
-      <c r="GJ16">
-        <v>4</v>
-      </c>
-      <c r="GL16">
-        <v>2</v>
-      </c>
-      <c r="GP16" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="GQ16">
         <v>0</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="17" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B17" t="s">
         <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="GP17" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="GQ17">
         <v>0</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="18" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B18" t="s">
         <v>222</v>
@@ -10050,13 +10050,13 @@
     </row>
     <row r="19" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B19" t="s">
         <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO19" t="s">
         <v>257</v>
@@ -10217,13 +10217,13 @@
     </row>
     <row r="20" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B20" t="s">
         <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR20" t="s">
         <v>257</v>
@@ -10259,13 +10259,13 @@
         <v>1</v>
       </c>
       <c r="HD20" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="HE20">
         <v>1</v>
       </c>
       <c r="HG20" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="HH20">
         <v>0</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="21" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B21" t="s">
         <v>222</v>
@@ -10713,13 +10713,13 @@
     </row>
     <row r="22" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B22" t="s">
         <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO22" t="s">
         <v>266</v>
@@ -10875,7 +10875,7 @@
         <v>269</v>
       </c>
       <c r="GP22" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="GQ22">
         <v>2</v>
@@ -10883,13 +10883,13 @@
     </row>
     <row r="23" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR23" t="s">
         <v>266</v>
@@ -10928,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="HG23" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="HH23">
         <v>0</v>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="24" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B24" t="s">
         <v>222</v>
@@ -11376,13 +11376,13 @@
     </row>
     <row r="25" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO25" t="s">
         <v>275</v>
@@ -11543,13 +11543,13 @@
     </row>
     <row r="26" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B26" t="s">
         <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR26" t="s">
         <v>275</v>
@@ -11588,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="HG26" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="HH26">
         <v>0</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="27" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B27" t="s">
         <v>222</v>
@@ -12036,13 +12036,13 @@
     </row>
     <row r="28" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B28" t="s">
         <v>224</v>
       </c>
       <c r="D28" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO28" t="s">
         <v>284</v>
@@ -12186,7 +12186,7 @@
         <v>5</v>
       </c>
       <c r="GK28" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="GL28">
         <v>2</v>
@@ -12206,13 +12206,13 @@
     </row>
     <row r="29" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B29" t="s">
         <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR29" t="s">
         <v>284</v>
@@ -12251,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="HG29" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="HH29">
         <v>0</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="30" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B30" t="s">
         <v>222</v>
@@ -12699,13 +12699,13 @@
     </row>
     <row r="31" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B31" t="s">
         <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO31" t="s">
         <v>293</v>
@@ -12866,13 +12866,13 @@
     </row>
     <row r="32" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B32" t="s">
         <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR32" t="s">
         <v>293</v>
@@ -12911,16 +12911,16 @@
         <v>1</v>
       </c>
       <c r="HG32" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="HH32">
+        <v>0</v>
+      </c>
+      <c r="HJ32">
+        <v>1</v>
+      </c>
+      <c r="HK32" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="HH32">
-        <v>0</v>
-      </c>
-      <c r="HJ32">
-        <v>1</v>
-      </c>
-      <c r="HK32" s="2" t="s">
-        <v>1661</v>
       </c>
       <c r="HL32">
         <v>0</v>
@@ -12934,7 +12934,7 @@
     </row>
     <row r="33" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B33" t="s">
         <v>222</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="34" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B34" t="s">
         <v>222</v>
@@ -13670,13 +13670,13 @@
     </row>
     <row r="35" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B35" t="s">
         <v>224</v>
       </c>
       <c r="D35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO35" t="s">
         <v>303</v>
@@ -13837,13 +13837,13 @@
     </row>
     <row r="36" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B36" t="s">
         <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR36" t="s">
         <v>303</v>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="HG36" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="HH36">
         <v>0</v>
@@ -13896,7 +13896,7 @@
     </row>
     <row r="37" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B37" t="s">
         <v>222</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="38" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B38" t="s">
         <v>222</v>
@@ -14764,13 +14764,13 @@
     </row>
     <row r="39" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B39" t="s">
         <v>224</v>
       </c>
       <c r="D39" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO39" t="s">
         <v>313</v>
@@ -14926,7 +14926,7 @@
         <v>316</v>
       </c>
       <c r="GP39" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="GQ39">
         <v>2</v>
@@ -14934,13 +14934,13 @@
     </row>
     <row r="40" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B40" t="s">
         <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR40" t="s">
         <v>313</v>
@@ -14976,13 +14976,13 @@
         <v>1</v>
       </c>
       <c r="HD40" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="HE40">
+        <v>1</v>
+      </c>
+      <c r="HG40" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="HE40">
-        <v>1</v>
-      </c>
-      <c r="HG40" s="2" t="s">
-        <v>1664</v>
       </c>
       <c r="HH40">
         <v>0</v>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="41" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B41" t="s">
         <v>222</v>
@@ -15430,7 +15430,7 @@
     </row>
     <row r="42" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B42" t="s">
         <v>222</v>
@@ -15864,13 +15864,13 @@
     </row>
     <row r="43" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B43" t="s">
         <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO43" t="s">
         <v>323</v>
@@ -16031,13 +16031,13 @@
     </row>
     <row r="44" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B44" t="s">
         <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR44" t="s">
         <v>323</v>
@@ -16076,13 +16076,13 @@
         <v>1</v>
       </c>
       <c r="HG44" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="HH44">
+        <v>1</v>
+      </c>
+      <c r="HI44" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="HH44">
-        <v>1</v>
-      </c>
-      <c r="HI44" s="2" t="s">
-        <v>1666</v>
       </c>
       <c r="HJ44">
         <v>0</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="45" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B45" t="s">
         <v>222</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="46" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B46" t="s">
         <v>222</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="47" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B47" t="s">
         <v>222</v>
@@ -17353,13 +17353,13 @@
     </row>
     <row r="48" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B48" t="s">
         <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO48" t="s">
         <v>335</v>
@@ -17515,7 +17515,7 @@
         <v>338</v>
       </c>
       <c r="GP48" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="GQ48">
         <v>2</v>
@@ -17523,13 +17523,13 @@
     </row>
     <row r="49" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B49" t="s">
         <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR49" t="s">
         <v>335</v>
@@ -17559,7 +17559,7 @@
         <v>343</v>
       </c>
       <c r="HA49" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="HB49">
         <v>2</v>
@@ -17571,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="HG49" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="HH49">
         <v>0</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="50" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B50" t="s">
         <v>222</v>
@@ -18019,7 +18019,7 @@
     </row>
     <row r="51" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B51" t="s">
         <v>222</v>
@@ -18453,13 +18453,13 @@
     </row>
     <row r="52" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B52" t="s">
         <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO52" t="s">
         <v>345</v>
@@ -18567,7 +18567,7 @@
         <v>348</v>
       </c>
       <c r="GP52" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="GQ52">
         <v>2</v>
@@ -18575,13 +18575,13 @@
     </row>
     <row r="53" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B53" t="s">
         <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR53" t="s">
         <v>345</v>
@@ -18611,7 +18611,7 @@
         <v>353</v>
       </c>
       <c r="HA53" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="HB53">
         <v>2</v>
@@ -18620,13 +18620,13 @@
         <v>1</v>
       </c>
       <c r="HD53" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="HE53">
+        <v>1</v>
+      </c>
+      <c r="HG53" s="2" t="s">
         <v>1668</v>
-      </c>
-      <c r="HE53">
-        <v>1</v>
-      </c>
-      <c r="HG53" s="2" t="s">
-        <v>1669</v>
       </c>
       <c r="HH53">
         <v>0</v>
@@ -18640,7 +18640,7 @@
     </row>
     <row r="54" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B54" t="s">
         <v>222</v>
@@ -19074,13 +19074,13 @@
     </row>
     <row r="55" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B55" t="s">
         <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO55" t="s">
         <v>354</v>
@@ -19224,7 +19224,7 @@
         <v>5</v>
       </c>
       <c r="GK55" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="GL55">
         <v>2</v>
@@ -19244,13 +19244,13 @@
     </row>
     <row r="56" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B56" t="s">
         <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR56" t="s">
         <v>354</v>
@@ -19289,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="HG56" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="HH56">
         <v>0</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="57" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B57" t="s">
         <v>222</v>
@@ -19737,13 +19737,13 @@
     </row>
     <row r="58" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B58" t="s">
         <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO58" t="s">
         <v>363</v>
@@ -19904,13 +19904,13 @@
     </row>
     <row r="59" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B59" t="s">
         <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR59" t="s">
         <v>363</v>
@@ -19946,19 +19946,19 @@
         <v>1</v>
       </c>
       <c r="HD59" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="HE59">
+        <v>1</v>
+      </c>
+      <c r="HG59" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="HE59">
-        <v>1</v>
-      </c>
-      <c r="HG59" s="2" t="s">
+      <c r="HH59">
+        <v>1</v>
+      </c>
+      <c r="HI59" s="2" t="s">
         <v>1672</v>
-      </c>
-      <c r="HH59">
-        <v>1</v>
-      </c>
-      <c r="HI59" s="2" t="s">
-        <v>1673</v>
       </c>
       <c r="HJ59">
         <v>0</v>
@@ -19969,7 +19969,7 @@
     </row>
     <row r="60" spans="1:222" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>222</v>
@@ -20403,13 +20403,13 @@
     </row>
     <row r="61" spans="1:222" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO61" s="3" t="s">
         <v>372</v>
@@ -20565,7 +20565,7 @@
         <v>375</v>
       </c>
       <c r="GP61" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="GQ61" s="3">
         <v>2</v>
@@ -20573,13 +20573,13 @@
     </row>
     <row r="62" spans="1:222" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR62" s="3" t="s">
         <v>372</v>
@@ -20618,7 +20618,7 @@
         <v>1</v>
       </c>
       <c r="HG62" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="HH62" s="3">
         <v>0</v>
@@ -20632,7 +20632,7 @@
     </row>
     <row r="63" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B63" t="s">
         <v>222</v>
@@ -21066,7 +21066,7 @@
     </row>
     <row r="64" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B64" t="s">
         <v>222</v>
@@ -21500,13 +21500,13 @@
     </row>
     <row r="65" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B65" t="s">
         <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO65" t="s">
         <v>382</v>
@@ -21667,13 +21667,13 @@
     </row>
     <row r="66" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B66" t="s">
         <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR66" t="s">
         <v>382</v>
@@ -21712,7 +21712,7 @@
         <v>1</v>
       </c>
       <c r="HG66" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="HH66">
         <v>0</v>
@@ -21726,7 +21726,7 @@
     </row>
     <row r="67" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B67" t="s">
         <v>222</v>
@@ -22160,13 +22160,13 @@
     </row>
     <row r="68" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B68" t="s">
         <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO68" t="s">
         <v>236</v>
@@ -22327,13 +22327,13 @@
     </row>
     <row r="69" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B69" t="s">
         <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR69" t="s">
         <v>236</v>
@@ -22372,7 +22372,7 @@
         <v>1</v>
       </c>
       <c r="HG69" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="HH69">
         <v>0</v>
@@ -22386,7 +22386,7 @@
     </row>
     <row r="70" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B70" t="s">
         <v>222</v>
@@ -22820,13 +22820,13 @@
     </row>
     <row r="71" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B71" t="s">
         <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO71" t="s">
         <v>399</v>
@@ -22987,13 +22987,13 @@
     </row>
     <row r="72" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B72" t="s">
         <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR72" t="s">
         <v>399</v>
@@ -23023,7 +23023,7 @@
         <v>407</v>
       </c>
       <c r="HA72" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="HB72">
         <v>2</v>
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="HG72" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="HH72">
         <v>0</v>
@@ -23049,7 +23049,7 @@
     </row>
     <row r="73" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B73" t="s">
         <v>222</v>
@@ -23099,7 +23099,7 @@
     </row>
     <row r="74" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B74" t="s">
         <v>222</v>
@@ -23149,7 +23149,7 @@
     </row>
     <row r="75" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B75" t="s">
         <v>222</v>
@@ -23583,13 +23583,13 @@
     </row>
     <row r="76" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B76" t="s">
         <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO76" t="s">
         <v>409</v>
@@ -23750,13 +23750,13 @@
     </row>
     <row r="77" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B77" t="s">
         <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR77" t="s">
         <v>409</v>
@@ -23795,16 +23795,16 @@
         <v>1</v>
       </c>
       <c r="HG77" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="HH77">
+        <v>0</v>
+      </c>
+      <c r="HJ77">
+        <v>1</v>
+      </c>
+      <c r="HK77" s="2" t="s">
         <v>1678</v>
-      </c>
-      <c r="HH77">
-        <v>0</v>
-      </c>
-      <c r="HJ77">
-        <v>1</v>
-      </c>
-      <c r="HK77" s="2" t="s">
-        <v>1679</v>
       </c>
       <c r="HL77">
         <v>1</v>
@@ -23818,7 +23818,7 @@
     </row>
     <row r="78" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B78" t="s">
         <v>222</v>
@@ -24252,13 +24252,13 @@
     </row>
     <row r="79" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B79" t="s">
         <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO79" t="s">
         <v>418</v>
@@ -24419,13 +24419,13 @@
     </row>
     <row r="80" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B80" t="s">
         <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR80" t="s">
         <v>418</v>
@@ -24464,7 +24464,7 @@
         <v>1</v>
       </c>
       <c r="HG80" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="HH80">
         <v>0</v>
@@ -24478,7 +24478,7 @@
     </row>
     <row r="81" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B81" t="s">
         <v>222</v>
@@ -24912,7 +24912,7 @@
     </row>
     <row r="82" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B82" t="s">
         <v>222</v>
@@ -25346,7 +25346,7 @@
     </row>
     <row r="83" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B83" t="s">
         <v>222</v>
@@ -25780,13 +25780,13 @@
     </row>
     <row r="84" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B84" t="s">
         <v>224</v>
       </c>
       <c r="D84" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO84" t="s">
         <v>429</v>
@@ -25930,7 +25930,7 @@
         <v>5</v>
       </c>
       <c r="GK84" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="GL84">
         <v>2</v>
@@ -25950,13 +25950,13 @@
     </row>
     <row r="85" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B85" t="s">
         <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR85" t="s">
         <v>429</v>
@@ -25986,7 +25986,7 @@
         <v>437</v>
       </c>
       <c r="HA85" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="HB85">
         <v>2</v>
@@ -25995,13 +25995,13 @@
         <v>1</v>
       </c>
       <c r="HD85" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="HE85">
+        <v>1</v>
+      </c>
+      <c r="HG85" s="2" t="s">
         <v>1681</v>
-      </c>
-      <c r="HE85">
-        <v>1</v>
-      </c>
-      <c r="HG85" s="2" t="s">
-        <v>1682</v>
       </c>
       <c r="HH85">
         <v>0</v>
@@ -26015,7 +26015,7 @@
     </row>
     <row r="86" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B86" t="s">
         <v>222</v>
@@ -26065,7 +26065,7 @@
     </row>
     <row r="87" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B87" t="s">
         <v>222</v>
@@ -26499,13 +26499,13 @@
     </row>
     <row r="88" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B88" t="s">
         <v>224</v>
       </c>
       <c r="D88" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO88" t="s">
         <v>439</v>
@@ -26661,7 +26661,7 @@
         <v>442</v>
       </c>
       <c r="GP88" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="GQ88">
         <v>2</v>
@@ -26669,13 +26669,13 @@
     </row>
     <row r="89" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B89" t="s">
         <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR89" t="s">
         <v>439</v>
@@ -26711,13 +26711,13 @@
         <v>1</v>
       </c>
       <c r="HD89" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="HE89">
+        <v>1</v>
+      </c>
+      <c r="HG89" s="2" t="s">
         <v>1683</v>
-      </c>
-      <c r="HE89">
-        <v>1</v>
-      </c>
-      <c r="HG89" s="2" t="s">
-        <v>1684</v>
       </c>
       <c r="HH89">
         <v>0</v>
@@ -26731,7 +26731,7 @@
     </row>
     <row r="90" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B90" t="s">
         <v>222</v>
@@ -27165,13 +27165,13 @@
     </row>
     <row r="91" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B91" t="s">
         <v>224</v>
       </c>
       <c r="D91" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO91" t="s">
         <v>408</v>
@@ -27332,13 +27332,13 @@
     </row>
     <row r="92" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B92" t="s">
         <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR92" t="s">
         <v>408</v>
@@ -27368,7 +27368,7 @@
         <v>455</v>
       </c>
       <c r="HA92" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="HB92">
         <v>2</v>
@@ -27380,7 +27380,7 @@
         <v>1</v>
       </c>
       <c r="HG92" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="HH92">
         <v>0</v>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="93" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B93" t="s">
         <v>222</v>
@@ -27621,7 +27621,7 @@
     </row>
     <row r="94" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B94" t="s">
         <v>222</v>
@@ -28055,13 +28055,13 @@
     </row>
     <row r="95" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B95" t="s">
         <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO95" t="s">
         <v>457</v>
@@ -28222,13 +28222,13 @@
     </row>
     <row r="96" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B96" t="s">
         <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR96" t="s">
         <v>457</v>
@@ -28267,7 +28267,7 @@
         <v>1</v>
       </c>
       <c r="HG96" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="HH96">
         <v>0</v>
@@ -28281,7 +28281,7 @@
     </row>
     <row r="97" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B97" t="s">
         <v>222</v>
@@ -28715,13 +28715,13 @@
     </row>
     <row r="98" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B98" t="s">
         <v>224</v>
       </c>
       <c r="D98" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO98" t="s">
         <v>467</v>
@@ -28882,13 +28882,13 @@
     </row>
     <row r="99" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B99" t="s">
         <v>229</v>
       </c>
       <c r="D99" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR99" t="s">
         <v>467</v>
@@ -28927,16 +28927,16 @@
         <v>1</v>
       </c>
       <c r="HG99" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="HH99">
+        <v>0</v>
+      </c>
+      <c r="HJ99">
+        <v>1</v>
+      </c>
+      <c r="HK99" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="HH99">
-        <v>0</v>
-      </c>
-      <c r="HJ99">
-        <v>1</v>
-      </c>
-      <c r="HK99" s="2" t="s">
-        <v>1688</v>
       </c>
       <c r="HL99">
         <v>1</v>
@@ -28950,7 +28950,7 @@
     </row>
     <row r="100" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B100" t="s">
         <v>222</v>
@@ -29384,7 +29384,7 @@
     </row>
     <row r="101" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B101" t="s">
         <v>222</v>
@@ -29434,7 +29434,7 @@
     </row>
     <row r="102" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B102" t="s">
         <v>222</v>
@@ -29868,13 +29868,13 @@
     </row>
     <row r="103" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B103" t="s">
         <v>224</v>
       </c>
       <c r="D103" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO103" t="s">
         <v>478</v>
@@ -30018,7 +30018,7 @@
         <v>5</v>
       </c>
       <c r="GK103" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="GL103">
         <v>2</v>
@@ -30033,7 +30033,7 @@
         <v>481</v>
       </c>
       <c r="GP103" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="GQ103">
         <v>2</v>
@@ -30041,13 +30041,13 @@
     </row>
     <row r="104" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B104" t="s">
         <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR104" t="s">
         <v>478</v>
@@ -30083,19 +30083,19 @@
         <v>1</v>
       </c>
       <c r="HD104" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="HE104">
+        <v>1</v>
+      </c>
+      <c r="HG104" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="HE104">
-        <v>1</v>
-      </c>
-      <c r="HG104" s="2" t="s">
+      <c r="HH104">
+        <v>1</v>
+      </c>
+      <c r="HI104" s="2" t="s">
         <v>1690</v>
-      </c>
-      <c r="HH104">
-        <v>1</v>
-      </c>
-      <c r="HI104" s="2" t="s">
-        <v>1691</v>
       </c>
       <c r="HJ104">
         <v>0</v>
@@ -30106,7 +30106,7 @@
     </row>
     <row r="105" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B105" t="s">
         <v>222</v>
@@ -30540,13 +30540,13 @@
     </row>
     <row r="106" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B106" t="s">
         <v>224</v>
       </c>
       <c r="D106" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO106" t="s">
         <v>487</v>
@@ -30707,13 +30707,13 @@
     </row>
     <row r="107" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B107" t="s">
         <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR107" t="s">
         <v>487</v>
@@ -30752,7 +30752,7 @@
         <v>1</v>
       </c>
       <c r="HG107" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="HH107">
         <v>0</v>
@@ -30766,7 +30766,7 @@
     </row>
     <row r="108" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B108" t="s">
         <v>222</v>
@@ -31200,13 +31200,13 @@
     </row>
     <row r="109" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B109" t="s">
         <v>224</v>
       </c>
       <c r="D109" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO109" t="s">
         <v>494</v>
@@ -31367,13 +31367,13 @@
     </row>
     <row r="110" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B110" t="s">
         <v>229</v>
       </c>
       <c r="D110" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR110" s="2" t="s">
         <v>494</v>
@@ -31412,7 +31412,7 @@
         <v>1</v>
       </c>
       <c r="HG110" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="HH110">
         <v>0</v>
@@ -31426,7 +31426,7 @@
     </row>
     <row r="111" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B111" t="s">
         <v>222</v>
@@ -31860,13 +31860,13 @@
     </row>
     <row r="112" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B112" t="s">
         <v>224</v>
       </c>
       <c r="D112" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO112" t="s">
         <v>503</v>
@@ -32010,7 +32010,7 @@
         <v>5</v>
       </c>
       <c r="GK112" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="GL112">
         <v>2</v>
@@ -32025,7 +32025,7 @@
         <v>506</v>
       </c>
       <c r="GP112" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="GQ112">
         <v>2</v>
@@ -32033,13 +32033,13 @@
     </row>
     <row r="113" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B113" t="s">
         <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR113" t="s">
         <v>503</v>
@@ -32069,7 +32069,7 @@
         <v>511</v>
       </c>
       <c r="HA113" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="HB113">
         <v>2</v>
@@ -32081,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="HG113" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="HH113">
         <v>0</v>
@@ -32095,7 +32095,7 @@
     </row>
     <row r="114" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B114" t="s">
         <v>222</v>
@@ -32529,13 +32529,13 @@
     </row>
     <row r="115" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B115" t="s">
         <v>224</v>
       </c>
       <c r="D115" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO115" t="s">
         <v>512</v>
@@ -32679,7 +32679,7 @@
         <v>5</v>
       </c>
       <c r="GK115" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="GL115">
         <v>2</v>
@@ -32699,13 +32699,13 @@
     </row>
     <row r="116" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B116" t="s">
         <v>229</v>
       </c>
       <c r="D116" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR116" t="s">
         <v>512</v>
@@ -32735,7 +32735,7 @@
         <v>520</v>
       </c>
       <c r="HA116" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="HB116">
         <v>2</v>
@@ -32747,7 +32747,7 @@
         <v>1</v>
       </c>
       <c r="HG116" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="HH116">
         <v>0</v>
@@ -32761,7 +32761,7 @@
     </row>
     <row r="117" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B117" t="s">
         <v>222</v>
@@ -33195,13 +33195,13 @@
     </row>
     <row r="118" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B118" t="s">
         <v>224</v>
       </c>
       <c r="D118" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO118" t="s">
         <v>521</v>
@@ -33362,13 +33362,13 @@
     </row>
     <row r="119" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B119" t="s">
         <v>229</v>
       </c>
       <c r="D119" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR119" t="s">
         <v>521</v>
@@ -33407,7 +33407,7 @@
         <v>1</v>
       </c>
       <c r="HG119" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="HH119">
         <v>0</v>
@@ -33421,7 +33421,7 @@
     </row>
     <row r="120" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B120" t="s">
         <v>222</v>
@@ -33648,7 +33648,7 @@
     </row>
     <row r="121" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B121" t="s">
         <v>222</v>
@@ -34082,13 +34082,13 @@
     </row>
     <row r="122" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B122" t="s">
         <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO122" t="s">
         <v>531</v>
@@ -34249,13 +34249,13 @@
     </row>
     <row r="123" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B123" t="s">
         <v>229</v>
       </c>
       <c r="D123" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR123" t="s">
         <v>531</v>
@@ -34294,7 +34294,7 @@
         <v>1</v>
       </c>
       <c r="HG123" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="HH123">
         <v>0</v>
@@ -34308,7 +34308,7 @@
     </row>
     <row r="124" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B124" t="s">
         <v>222</v>
@@ -34742,13 +34742,13 @@
     </row>
     <row r="125" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B125" t="s">
         <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO125" t="s">
         <v>541</v>
@@ -34909,13 +34909,13 @@
     </row>
     <row r="126" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B126" t="s">
         <v>229</v>
       </c>
       <c r="D126" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR126" t="s">
         <v>541</v>
@@ -34954,7 +34954,7 @@
         <v>1</v>
       </c>
       <c r="HG126" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="HH126">
         <v>0</v>
@@ -34968,7 +34968,7 @@
     </row>
     <row r="127" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B127" t="s">
         <v>222</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="128" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B128" t="s">
         <v>222</v>
@@ -35836,13 +35836,13 @@
     </row>
     <row r="129" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B129" t="s">
         <v>224</v>
       </c>
       <c r="D129" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO129" t="s">
         <v>551</v>
@@ -35998,7 +35998,7 @@
         <v>554</v>
       </c>
       <c r="GP129" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="GQ129">
         <v>2</v>
@@ -36006,13 +36006,13 @@
     </row>
     <row r="130" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B130" t="s">
         <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR130" t="s">
         <v>551</v>
@@ -36048,13 +36048,13 @@
         <v>1</v>
       </c>
       <c r="HD130" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="HE130">
+        <v>1</v>
+      </c>
+      <c r="HG130" s="2" t="s">
         <v>1699</v>
-      </c>
-      <c r="HE130">
-        <v>1</v>
-      </c>
-      <c r="HG130" s="2" t="s">
-        <v>1700</v>
       </c>
       <c r="HH130">
         <v>0</v>
@@ -36068,7 +36068,7 @@
     </row>
     <row r="131" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B131" t="s">
         <v>222</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="132" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B132" t="s">
         <v>222</v>
@@ -36450,7 +36450,7 @@
     </row>
     <row r="133" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B133" t="s">
         <v>222</v>
@@ -36500,7 +36500,7 @@
     </row>
     <row r="134" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B134" t="s">
         <v>222</v>
@@ -36934,13 +36934,13 @@
     </row>
     <row r="135" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B135" t="s">
         <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO135" t="s">
         <v>562</v>
@@ -37101,13 +37101,13 @@
     </row>
     <row r="136" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B136" t="s">
         <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR136" t="s">
         <v>562</v>
@@ -37146,7 +37146,7 @@
         <v>1</v>
       </c>
       <c r="HG136" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="HH136">
         <v>0</v>
@@ -37160,7 +37160,7 @@
     </row>
     <row r="137" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B137" t="s">
         <v>222</v>
@@ -37594,13 +37594,13 @@
     </row>
     <row r="138" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B138" t="s">
         <v>224</v>
       </c>
       <c r="D138" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO138" t="s">
         <v>571</v>
@@ -37762,13 +37762,13 @@
     </row>
     <row r="139" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B139" t="s">
         <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR139" t="s">
         <v>571</v>
@@ -37807,7 +37807,7 @@
         <v>1</v>
       </c>
       <c r="HG139" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="HH139">
         <v>0</v>
@@ -37821,7 +37821,7 @@
     </row>
     <row r="140" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B140" t="s">
         <v>222</v>
@@ -38048,7 +38048,7 @@
     </row>
     <row r="141" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B141" t="s">
         <v>222</v>
@@ -38482,13 +38482,13 @@
     </row>
     <row r="142" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B142" t="s">
         <v>224</v>
       </c>
       <c r="D142" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO142" t="s">
         <v>581</v>
@@ -38632,7 +38632,7 @@
         <v>5</v>
       </c>
       <c r="GK142" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="GL142">
         <v>2</v>
@@ -38652,13 +38652,13 @@
     </row>
     <row r="143" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B143" t="s">
         <v>229</v>
       </c>
       <c r="D143" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR143" t="s">
         <v>581</v>
@@ -38697,7 +38697,7 @@
         <v>1</v>
       </c>
       <c r="HG143" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="HH143">
         <v>0</v>
@@ -38711,7 +38711,7 @@
     </row>
     <row r="144" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B144" t="s">
         <v>222</v>
@@ -38761,7 +38761,7 @@
     </row>
     <row r="145" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B145" t="s">
         <v>222</v>
@@ -39195,13 +39195,13 @@
     </row>
     <row r="146" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B146" t="s">
         <v>224</v>
       </c>
       <c r="D146" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO146" t="s">
         <v>591</v>
@@ -39363,13 +39363,13 @@
     </row>
     <row r="147" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B147" t="s">
         <v>229</v>
       </c>
       <c r="D147" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR147" t="s">
         <v>591</v>
@@ -39405,13 +39405,13 @@
         <v>1</v>
       </c>
       <c r="HD147" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="HE147">
+        <v>1</v>
+      </c>
+      <c r="HG147" s="2" t="s">
         <v>1704</v>
-      </c>
-      <c r="HE147">
-        <v>1</v>
-      </c>
-      <c r="HG147" s="2" t="s">
-        <v>1705</v>
       </c>
       <c r="HH147">
         <v>0</v>
@@ -39425,7 +39425,7 @@
     </row>
     <row r="148" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B148" t="s">
         <v>222</v>
@@ -39859,13 +39859,13 @@
     </row>
     <row r="149" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B149" t="s">
         <v>224</v>
       </c>
       <c r="D149" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO149" t="s">
         <v>600</v>
@@ -40026,13 +40026,13 @@
     </row>
     <row r="150" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B150" t="s">
         <v>229</v>
       </c>
       <c r="D150" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR150" t="s">
         <v>600</v>
@@ -40071,7 +40071,7 @@
         <v>1</v>
       </c>
       <c r="HG150" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="HH150">
         <v>0</v>
@@ -40085,7 +40085,7 @@
     </row>
     <row r="151" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B151" t="s">
         <v>222</v>
@@ -40519,13 +40519,13 @@
     </row>
     <row r="152" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B152" t="s">
         <v>224</v>
       </c>
       <c r="D152" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO152" t="s">
         <v>609</v>
@@ -40686,13 +40686,13 @@
     </row>
     <row r="153" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B153" t="s">
         <v>229</v>
       </c>
       <c r="D153" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR153" t="s">
         <v>609</v>
@@ -40731,7 +40731,7 @@
         <v>1</v>
       </c>
       <c r="HG153" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="HH153">
         <v>0</v>
@@ -40745,7 +40745,7 @@
     </row>
     <row r="154" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B154" t="s">
         <v>222</v>
@@ -41179,13 +41179,13 @@
     </row>
     <row r="155" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B155" t="s">
         <v>224</v>
       </c>
       <c r="D155" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO155" t="s">
         <v>618</v>
@@ -41341,7 +41341,7 @@
         <v>621</v>
       </c>
       <c r="GP155" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="GQ155">
         <v>2</v>
@@ -41349,13 +41349,13 @@
     </row>
     <row r="156" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B156" t="s">
         <v>229</v>
       </c>
       <c r="D156" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR156" t="s">
         <v>618</v>
@@ -41394,7 +41394,7 @@
         <v>1</v>
       </c>
       <c r="HG156" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="HH156">
         <v>0</v>
@@ -41408,7 +41408,7 @@
     </row>
     <row r="157" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B157" t="s">
         <v>222</v>
@@ -41842,7 +41842,7 @@
     </row>
     <row r="158" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B158" t="s">
         <v>222</v>
@@ -42276,13 +42276,13 @@
     </row>
     <row r="159" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B159" t="s">
         <v>224</v>
       </c>
       <c r="D159" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO159" t="s">
         <v>628</v>
@@ -42426,7 +42426,7 @@
         <v>5</v>
       </c>
       <c r="GK159" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="GL159">
         <v>2</v>
@@ -42446,13 +42446,13 @@
     </row>
     <row r="160" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B160" t="s">
         <v>229</v>
       </c>
       <c r="D160" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR160" t="s">
         <v>628</v>
@@ -42488,13 +42488,13 @@
         <v>1</v>
       </c>
       <c r="HD160" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="HE160">
+        <v>1</v>
+      </c>
+      <c r="HG160" s="2" t="s">
         <v>1708</v>
-      </c>
-      <c r="HE160">
-        <v>1</v>
-      </c>
-      <c r="HG160" s="2" t="s">
-        <v>1709</v>
       </c>
       <c r="HH160">
         <v>0</v>
@@ -42508,7 +42508,7 @@
     </row>
     <row r="161" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B161" t="s">
         <v>222</v>
@@ -42942,13 +42942,13 @@
     </row>
     <row r="162" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B162" t="s">
         <v>224</v>
       </c>
       <c r="D162" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO162" t="s">
         <v>637</v>
@@ -43092,7 +43092,7 @@
         <v>5</v>
       </c>
       <c r="GK162" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="GL162">
         <v>2</v>
@@ -43112,13 +43112,13 @@
     </row>
     <row r="163" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B163" t="s">
         <v>229</v>
       </c>
       <c r="D163" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR163" t="s">
         <v>637</v>
@@ -43154,13 +43154,13 @@
         <v>1</v>
       </c>
       <c r="HD163" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="HE163">
+        <v>1</v>
+      </c>
+      <c r="HG163" s="2" t="s">
         <v>1710</v>
-      </c>
-      <c r="HE163">
-        <v>1</v>
-      </c>
-      <c r="HG163" s="2" t="s">
-        <v>1711</v>
       </c>
       <c r="HH163">
         <v>0</v>
@@ -43174,7 +43174,7 @@
     </row>
     <row r="164" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B164" t="s">
         <v>222</v>
@@ -43566,7 +43566,7 @@
     </row>
     <row r="165" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B165" t="s">
         <v>222</v>
@@ -44000,7 +44000,7 @@
     </row>
     <row r="166" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B166" t="s">
         <v>222</v>
@@ -44434,13 +44434,13 @@
     </row>
     <row r="167" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B167" t="s">
         <v>224</v>
       </c>
       <c r="D167" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO167" t="s">
         <v>648</v>
@@ -44601,13 +44601,13 @@
     </row>
     <row r="168" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B168" t="s">
         <v>229</v>
       </c>
       <c r="D168" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR168" t="s">
         <v>648</v>
@@ -44646,7 +44646,7 @@
         <v>1</v>
       </c>
       <c r="HG168" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="HH168">
         <v>0</v>
@@ -44660,7 +44660,7 @@
     </row>
     <row r="169" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B169" t="s">
         <v>222</v>
@@ -45094,13 +45094,13 @@
     </row>
     <row r="170" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B170" t="s">
         <v>224</v>
       </c>
       <c r="D170" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO170" t="s">
         <v>657</v>
@@ -45256,7 +45256,7 @@
         <v>660</v>
       </c>
       <c r="GP170" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="GQ170">
         <v>2</v>
@@ -45264,13 +45264,13 @@
     </row>
     <row r="171" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B171" t="s">
         <v>229</v>
       </c>
       <c r="D171" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR171" t="s">
         <v>657</v>
@@ -45306,13 +45306,13 @@
         <v>1</v>
       </c>
       <c r="HD171" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="HE171">
         <v>1</v>
       </c>
       <c r="HG171" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="HH171">
         <v>0</v>
@@ -45326,7 +45326,7 @@
     </row>
     <row r="172" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B172" t="s">
         <v>222</v>
@@ -45760,13 +45760,13 @@
     </row>
     <row r="173" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B173" t="s">
         <v>224</v>
       </c>
       <c r="D173" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO173" t="s">
         <v>666</v>
@@ -45910,7 +45910,7 @@
         <v>5</v>
       </c>
       <c r="GK173" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="GL173">
         <v>2</v>
@@ -45930,13 +45930,13 @@
     </row>
     <row r="174" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B174" t="s">
         <v>229</v>
       </c>
       <c r="D174" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR174" t="s">
         <v>666</v>
@@ -45975,16 +45975,16 @@
         <v>1</v>
       </c>
       <c r="HG174" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="HH174">
+        <v>0</v>
+      </c>
+      <c r="HJ174">
+        <v>1</v>
+      </c>
+      <c r="HK174" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="HH174">
-        <v>0</v>
-      </c>
-      <c r="HJ174">
-        <v>1</v>
-      </c>
-      <c r="HK174" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="HL174">
         <v>1</v>
@@ -45998,7 +45998,7 @@
     </row>
     <row r="175" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B175" t="s">
         <v>222</v>
@@ -46330,7 +46330,7 @@
     </row>
     <row r="176" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B176" t="s">
         <v>222</v>
@@ -46764,13 +46764,13 @@
     </row>
     <row r="177" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B177" t="s">
         <v>224</v>
       </c>
       <c r="D177" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO177" t="s">
         <v>676</v>
@@ -46914,7 +46914,7 @@
         <v>5</v>
       </c>
       <c r="GK177" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="GL177">
         <v>2</v>
@@ -46934,13 +46934,13 @@
     </row>
     <row r="178" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B178" t="s">
         <v>229</v>
       </c>
       <c r="D178" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR178" t="s">
         <v>676</v>
@@ -46976,19 +46976,19 @@
         <v>1</v>
       </c>
       <c r="HD178" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="HE178">
+        <v>1</v>
+      </c>
+      <c r="HG178" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="HE178">
-        <v>1</v>
-      </c>
-      <c r="HG178" s="2" t="s">
+      <c r="HH178">
+        <v>1</v>
+      </c>
+      <c r="HI178" s="2" t="s">
         <v>1718</v>
-      </c>
-      <c r="HH178">
-        <v>1</v>
-      </c>
-      <c r="HI178" s="2" t="s">
-        <v>1719</v>
       </c>
       <c r="HJ178">
         <v>0</v>
@@ -46999,7 +46999,7 @@
     </row>
     <row r="179" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B179" t="s">
         <v>222</v>
@@ -47433,13 +47433,13 @@
     </row>
     <row r="180" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B180" t="s">
         <v>224</v>
       </c>
       <c r="D180" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO180" t="s">
         <v>685</v>
@@ -47600,13 +47600,13 @@
     </row>
     <row r="181" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B181" t="s">
         <v>229</v>
       </c>
       <c r="D181" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR181" t="s">
         <v>685</v>
@@ -47636,7 +47636,7 @@
         <v>693</v>
       </c>
       <c r="HA181" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="HB181">
         <v>2</v>
@@ -47648,7 +47648,7 @@
         <v>1</v>
       </c>
       <c r="HG181" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="HH181">
         <v>0</v>
@@ -47662,7 +47662,7 @@
     </row>
     <row r="182" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B182" t="s">
         <v>222</v>
@@ -48096,13 +48096,13 @@
     </row>
     <row r="183" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B183" t="s">
         <v>224</v>
       </c>
       <c r="D183" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO183" t="s">
         <v>694</v>
@@ -48263,13 +48263,13 @@
     </row>
     <row r="184" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B184" t="s">
         <v>229</v>
       </c>
       <c r="D184" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR184" t="s">
         <v>694</v>
@@ -48308,7 +48308,7 @@
         <v>1</v>
       </c>
       <c r="HG184" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="HH184">
         <v>0</v>
@@ -48322,7 +48322,7 @@
     </row>
     <row r="185" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B185" t="s">
         <v>222</v>
@@ -48756,13 +48756,13 @@
     </row>
     <row r="186" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B186" t="s">
         <v>224</v>
       </c>
       <c r="D186" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO186" t="s">
         <v>703</v>
@@ -48906,7 +48906,7 @@
         <v>5</v>
       </c>
       <c r="GK186" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="GL186">
         <v>2</v>
@@ -48926,13 +48926,13 @@
     </row>
     <row r="187" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B187" t="s">
         <v>229</v>
       </c>
       <c r="D187" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR187" t="s">
         <v>703</v>
@@ -48971,7 +48971,7 @@
         <v>1</v>
       </c>
       <c r="HG187" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="HH187">
         <v>0</v>
@@ -48985,7 +48985,7 @@
     </row>
     <row r="188" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B188" t="s">
         <v>222</v>
@@ -49419,7 +49419,7 @@
     </row>
     <row r="189" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B189" t="s">
         <v>222</v>
@@ -49853,13 +49853,13 @@
     </row>
     <row r="190" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B190" t="s">
         <v>224</v>
       </c>
       <c r="D190" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO190" t="s">
         <v>713</v>
@@ -50020,13 +50020,13 @@
     </row>
     <row r="191" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B191" t="s">
         <v>229</v>
       </c>
       <c r="D191" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR191" t="s">
         <v>713</v>
@@ -50062,19 +50062,19 @@
         <v>1</v>
       </c>
       <c r="HD191" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="HE191">
+        <v>1</v>
+      </c>
+      <c r="HG191" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="HH191">
+        <v>1</v>
+      </c>
+      <c r="HI191" s="2" t="s">
         <v>1724</v>
-      </c>
-      <c r="HE191">
-        <v>1</v>
-      </c>
-      <c r="HG191" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="HH191">
-        <v>1</v>
-      </c>
-      <c r="HI191" s="2" t="s">
-        <v>1725</v>
       </c>
       <c r="HJ191">
         <v>0</v>
@@ -50085,7 +50085,7 @@
     </row>
     <row r="192" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B192" t="s">
         <v>222</v>
@@ -50519,13 +50519,13 @@
     </row>
     <row r="193" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B193" t="s">
         <v>224</v>
       </c>
       <c r="D193" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO193" t="s">
         <v>722</v>
@@ -50686,13 +50686,13 @@
     </row>
     <row r="194" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B194" t="s">
         <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR194" t="s">
         <v>722</v>
@@ -50731,7 +50731,7 @@
         <v>1</v>
       </c>
       <c r="HG194" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="HH194">
         <v>0</v>
@@ -50745,7 +50745,7 @@
     </row>
     <row r="195" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B195" t="s">
         <v>222</v>
@@ -51179,7 +51179,7 @@
     </row>
     <row r="196" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B196" t="s">
         <v>222</v>
@@ -51613,13 +51613,13 @@
     </row>
     <row r="197" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B197" t="s">
         <v>224</v>
       </c>
       <c r="D197" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO197" t="s">
         <v>732</v>
@@ -51780,13 +51780,13 @@
     </row>
     <row r="198" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B198" t="s">
         <v>229</v>
       </c>
       <c r="D198" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR198" t="s">
         <v>732</v>
@@ -51822,13 +51822,13 @@
         <v>1</v>
       </c>
       <c r="HD198" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="HE198">
         <v>1</v>
       </c>
       <c r="HG198" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="HH198">
         <v>0</v>
@@ -51842,7 +51842,7 @@
     </row>
     <row r="199" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B199" t="s">
         <v>222</v>
@@ -52276,13 +52276,13 @@
     </row>
     <row r="200" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B200" t="s">
         <v>224</v>
       </c>
       <c r="D200" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO200" t="s">
         <v>741</v>
@@ -52443,13 +52443,13 @@
     </row>
     <row r="201" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B201" t="s">
         <v>229</v>
       </c>
       <c r="D201" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR201" t="s">
         <v>741</v>
@@ -52485,19 +52485,19 @@
         <v>1</v>
       </c>
       <c r="HD201" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="HE201">
+        <v>1</v>
+      </c>
+      <c r="HG201" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="HE201">
-        <v>1</v>
-      </c>
-      <c r="HG201" s="2" t="s">
+      <c r="HH201">
+        <v>1</v>
+      </c>
+      <c r="HI201" s="2" t="s">
         <v>1730</v>
-      </c>
-      <c r="HH201">
-        <v>1</v>
-      </c>
-      <c r="HI201" s="2" t="s">
-        <v>1731</v>
       </c>
       <c r="HJ201">
         <v>0</v>
@@ -52508,7 +52508,7 @@
     </row>
     <row r="202" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B202" t="s">
         <v>222</v>
@@ -52606,7 +52606,7 @@
     </row>
     <row r="203" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B203" t="s">
         <v>222</v>
@@ -53040,13 +53040,13 @@
     </row>
     <row r="204" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B204" t="s">
         <v>224</v>
       </c>
       <c r="D204" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO204" t="s">
         <v>751</v>
@@ -53207,13 +53207,13 @@
     </row>
     <row r="205" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B205" t="s">
         <v>229</v>
       </c>
       <c r="D205" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR205" t="s">
         <v>751</v>
@@ -53252,7 +53252,7 @@
         <v>1</v>
       </c>
       <c r="HG205" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="HH205">
         <v>0</v>
@@ -53266,7 +53266,7 @@
     </row>
     <row r="206" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B206" t="s">
         <v>222</v>
@@ -53700,13 +53700,13 @@
     </row>
     <row r="207" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B207" t="s">
         <v>224</v>
       </c>
       <c r="D207" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO207" t="s">
         <v>760</v>
@@ -53867,13 +53867,13 @@
     </row>
     <row r="208" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B208" t="s">
         <v>229</v>
       </c>
       <c r="D208" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR208" t="s">
         <v>760</v>
@@ -53909,13 +53909,13 @@
         <v>1</v>
       </c>
       <c r="HD208" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="HE208">
         <v>1</v>
       </c>
       <c r="HG208" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="HH208">
         <v>0</v>
@@ -53929,13 +53929,13 @@
     </row>
     <row r="209" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B209" t="s">
         <v>222</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -53976,7 +53976,7 @@
     </row>
     <row r="210" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B210" t="s">
         <v>222</v>
@@ -54410,13 +54410,13 @@
     </row>
     <row r="211" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B211" t="s">
         <v>224</v>
       </c>
       <c r="D211" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO211" t="s">
         <v>769</v>
@@ -54577,13 +54577,13 @@
     </row>
     <row r="212" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B212" t="s">
         <v>229</v>
       </c>
       <c r="D212" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR212" t="s">
         <v>769</v>
@@ -54619,13 +54619,13 @@
         <v>1</v>
       </c>
       <c r="HD212" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="HE212">
+        <v>1</v>
+      </c>
+      <c r="HG212" s="2" t="s">
         <v>1735</v>
-      </c>
-      <c r="HE212">
-        <v>1</v>
-      </c>
-      <c r="HG212" s="2" t="s">
-        <v>1736</v>
       </c>
       <c r="HH212">
         <v>0</v>
@@ -54639,7 +54639,7 @@
     </row>
     <row r="213" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B213" t="s">
         <v>222</v>
@@ -55073,13 +55073,13 @@
     </row>
     <row r="214" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B214" t="s">
         <v>224</v>
       </c>
       <c r="D214" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO214" t="s">
         <v>778</v>
@@ -55235,7 +55235,7 @@
         <v>781</v>
       </c>
       <c r="GP214" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="GQ214">
         <v>2</v>
@@ -55243,13 +55243,13 @@
     </row>
     <row r="215" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B215" t="s">
         <v>229</v>
       </c>
       <c r="D215" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR215" t="s">
         <v>778</v>
@@ -55279,7 +55279,7 @@
         <v>786</v>
       </c>
       <c r="HA215" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="HB215">
         <v>2</v>
@@ -55291,16 +55291,16 @@
         <v>1</v>
       </c>
       <c r="HG215" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="HH215">
+        <v>0</v>
+      </c>
+      <c r="HJ215">
+        <v>1</v>
+      </c>
+      <c r="HK215" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="HH215">
-        <v>0</v>
-      </c>
-      <c r="HJ215">
-        <v>1</v>
-      </c>
-      <c r="HK215" s="2" t="s">
-        <v>1738</v>
       </c>
       <c r="HL215">
         <v>1</v>
@@ -55314,7 +55314,7 @@
     </row>
     <row r="216" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B216" t="s">
         <v>222</v>
@@ -55748,13 +55748,13 @@
     </row>
     <row r="217" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B217" t="s">
         <v>224</v>
       </c>
       <c r="D217" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO217" t="s">
         <v>787</v>
@@ -55898,7 +55898,7 @@
         <v>5</v>
       </c>
       <c r="GK217" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="GL217">
         <v>2</v>
@@ -55918,13 +55918,13 @@
     </row>
     <row r="218" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B218" t="s">
         <v>229</v>
       </c>
       <c r="D218" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR218" t="s">
         <v>787</v>
@@ -55954,7 +55954,7 @@
         <v>795</v>
       </c>
       <c r="HA218" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="HB218">
         <v>2</v>
@@ -55966,19 +55966,19 @@
         <v>1</v>
       </c>
       <c r="HG218" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="HH218">
         <v>1</v>
       </c>
       <c r="HI218" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="HJ218">
         <v>1</v>
       </c>
       <c r="HK218" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="HL218">
         <v>1</v>
@@ -55992,7 +55992,7 @@
     </row>
     <row r="219" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B219" t="s">
         <v>222</v>
@@ -56090,7 +56090,7 @@
     </row>
     <row r="220" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B220" t="s">
         <v>222</v>
@@ -56524,13 +56524,13 @@
     </row>
     <row r="221" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B221" t="s">
         <v>224</v>
       </c>
       <c r="D221" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO221" t="s">
         <v>797</v>
@@ -56686,7 +56686,7 @@
         <v>800</v>
       </c>
       <c r="GP221" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="GQ221">
         <v>2</v>
@@ -56694,13 +56694,13 @@
     </row>
     <row r="222" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B222" t="s">
         <v>229</v>
       </c>
       <c r="D222" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GT222" s="1">
         <v>44887</v>
@@ -56717,7 +56717,7 @@
     </row>
     <row r="223" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
@@ -56815,7 +56815,7 @@
     </row>
     <row r="224" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B224" t="s">
         <v>222</v>
@@ -57249,13 +57249,13 @@
     </row>
     <row r="225" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
       <c r="D225" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO225" t="s">
         <v>802</v>
@@ -57399,7 +57399,7 @@
         <v>5</v>
       </c>
       <c r="GK225" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="GL225">
         <v>2</v>
@@ -57419,13 +57419,13 @@
     </row>
     <row r="226" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B226" t="s">
         <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR226" t="s">
         <v>802</v>
@@ -57461,22 +57461,22 @@
         <v>1</v>
       </c>
       <c r="HD226" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="HE226">
+        <v>0</v>
+      </c>
+      <c r="HF226" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="HE226">
-        <v>0</v>
-      </c>
-      <c r="HF226" s="2" t="s">
+      <c r="HG226" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="HG226" s="2" t="s">
+      <c r="HH226">
+        <v>1</v>
+      </c>
+      <c r="HI226" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="HH226">
-        <v>1</v>
-      </c>
-      <c r="HI226" s="2" t="s">
-        <v>1744</v>
       </c>
       <c r="HJ226">
         <v>0</v>
@@ -57487,7 +57487,7 @@
     </row>
     <row r="227" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B227" t="s">
         <v>222</v>
@@ -57744,7 +57744,7 @@
     </row>
     <row r="228" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B228" t="s">
         <v>222</v>
@@ -58178,13 +58178,13 @@
     </row>
     <row r="229" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B229" t="s">
         <v>224</v>
       </c>
       <c r="D229" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO229" t="s">
         <v>811</v>
@@ -58345,13 +58345,13 @@
     </row>
     <row r="230" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
       <c r="D230" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR230" t="s">
         <v>811</v>
@@ -58390,7 +58390,7 @@
         <v>1</v>
       </c>
       <c r="HG230" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="HH230">
         <v>0</v>
@@ -58404,7 +58404,7 @@
     </row>
     <row r="231" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B231" t="s">
         <v>222</v>
@@ -58736,7 +58736,7 @@
     </row>
     <row r="232" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B232" t="s">
         <v>222</v>
@@ -58786,7 +58786,7 @@
     </row>
     <row r="233" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B233" t="s">
         <v>222</v>
@@ -58884,7 +58884,7 @@
     </row>
     <row r="234" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B234" t="s">
         <v>222</v>
@@ -59318,13 +59318,13 @@
     </row>
     <row r="235" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B235" t="s">
         <v>224</v>
       </c>
       <c r="D235" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO235" t="s">
         <v>823</v>
@@ -59486,13 +59486,13 @@
     </row>
     <row r="236" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B236" t="s">
         <v>229</v>
       </c>
       <c r="D236" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR236" t="s">
         <v>823</v>
@@ -59528,7 +59528,7 @@
         <v>1</v>
       </c>
       <c r="HD236" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="HE236">
         <v>1</v>
@@ -59543,7 +59543,7 @@
         <v>1</v>
       </c>
       <c r="HK236" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="HL236">
         <v>1</v>
@@ -59557,7 +59557,7 @@
     </row>
     <row r="237" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B237" t="s">
         <v>222</v>
@@ -59991,13 +59991,13 @@
     </row>
     <row r="238" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B238" t="s">
         <v>224</v>
       </c>
       <c r="D238" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO238" t="s">
         <v>822</v>
@@ -60158,13 +60158,13 @@
     </row>
     <row r="239" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B239" t="s">
         <v>229</v>
       </c>
       <c r="D239" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR239" t="s">
         <v>822</v>
@@ -60203,7 +60203,7 @@
         <v>1</v>
       </c>
       <c r="HG239" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="HH239">
         <v>0</v>
@@ -60217,7 +60217,7 @@
     </row>
     <row r="240" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B240" t="s">
         <v>222</v>
@@ -60651,13 +60651,13 @@
     </row>
     <row r="241" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B241" t="s">
         <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO241" t="s">
         <v>841</v>
@@ -60818,13 +60818,13 @@
     </row>
     <row r="242" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B242" t="s">
         <v>229</v>
       </c>
       <c r="D242" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR242" t="s">
         <v>841</v>
@@ -60845,7 +60845,7 @@
         <v>846</v>
       </c>
       <c r="HA242" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="HB242">
         <v>2</v>
@@ -60854,13 +60854,13 @@
         <v>1</v>
       </c>
       <c r="HD242" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="HE242">
         <v>1</v>
       </c>
       <c r="HG242" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="HH242">
         <v>0</v>
@@ -60874,7 +60874,7 @@
     </row>
     <row r="243" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B243" t="s">
         <v>222</v>
@@ -60924,7 +60924,7 @@
     </row>
     <row r="244" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B244" t="s">
         <v>222</v>
@@ -61358,13 +61358,13 @@
     </row>
     <row r="245" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B245" t="s">
         <v>224</v>
       </c>
       <c r="D245" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO245" t="s">
         <v>848</v>
@@ -61508,7 +61508,7 @@
         <v>5</v>
       </c>
       <c r="GK245" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="GL245">
         <v>2</v>
@@ -61528,13 +61528,13 @@
     </row>
     <row r="246" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B246" t="s">
         <v>229</v>
       </c>
       <c r="D246" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR246" t="s">
         <v>848</v>
@@ -61573,10 +61573,10 @@
         <v>0</v>
       </c>
       <c r="HF246" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="HG246" s="2" t="s">
         <v>1751</v>
-      </c>
-      <c r="HG246" s="2" t="s">
-        <v>1752</v>
       </c>
       <c r="HH246">
         <v>0</v>
@@ -61590,7 +61590,7 @@
     </row>
     <row r="247" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B247" t="s">
         <v>222</v>
@@ -61817,7 +61817,7 @@
     </row>
     <row r="248" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B248" t="s">
         <v>222</v>
@@ -62251,13 +62251,13 @@
     </row>
     <row r="249" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B249" t="s">
         <v>224</v>
       </c>
       <c r="D249" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO249" t="s">
         <v>857</v>
@@ -62401,7 +62401,7 @@
         <v>5</v>
       </c>
       <c r="GK249" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="GL249">
         <v>2</v>
@@ -62421,13 +62421,13 @@
     </row>
     <row r="250" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B250" t="s">
         <v>229</v>
       </c>
       <c r="D250" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR250" t="s">
         <v>857</v>
@@ -62463,13 +62463,13 @@
         <v>1</v>
       </c>
       <c r="HD250" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="HE250">
         <v>1</v>
       </c>
       <c r="HG250" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="HH250">
         <v>0</v>
@@ -62483,7 +62483,7 @@
     </row>
     <row r="251" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B251" t="s">
         <v>222</v>
@@ -62917,13 +62917,13 @@
     </row>
     <row r="252" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B252" t="s">
         <v>224</v>
       </c>
       <c r="D252" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO252" t="s">
         <v>866</v>
@@ -63067,7 +63067,7 @@
         <v>5</v>
       </c>
       <c r="GK252" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="GL252">
         <v>2</v>
@@ -63087,13 +63087,13 @@
     </row>
     <row r="253" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B253" t="s">
         <v>229</v>
       </c>
       <c r="D253" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR253" t="s">
         <v>866</v>
@@ -63129,13 +63129,13 @@
         <v>1</v>
       </c>
       <c r="HD253" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="HE253">
+        <v>1</v>
+      </c>
+      <c r="HG253" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="HE253">
-        <v>1</v>
-      </c>
-      <c r="HG253" s="2" t="s">
-        <v>1756</v>
       </c>
       <c r="HH253">
         <v>0</v>
@@ -63149,7 +63149,7 @@
     </row>
     <row r="254" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B254" t="s">
         <v>222</v>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="255" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B255" t="s">
         <v>222</v>
@@ -63633,13 +63633,13 @@
     </row>
     <row r="256" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B256" t="s">
         <v>224</v>
       </c>
       <c r="D256" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO256" t="s">
         <v>875</v>
@@ -63800,13 +63800,13 @@
     </row>
     <row r="257" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B257" t="s">
         <v>229</v>
       </c>
       <c r="D257" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR257" t="s">
         <v>875</v>
@@ -63845,7 +63845,7 @@
         <v>1</v>
       </c>
       <c r="HG257" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="HH257">
         <v>0</v>
@@ -63859,7 +63859,7 @@
     </row>
     <row r="258" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B258" t="s">
         <v>222</v>
@@ -64293,13 +64293,13 @@
     </row>
     <row r="259" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B259" t="s">
         <v>224</v>
       </c>
       <c r="D259" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO259" t="s">
         <v>750</v>
@@ -64346,7 +64346,7 @@
     </row>
     <row r="260" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B260" t="s">
         <v>222</v>
@@ -64780,13 +64780,13 @@
     </row>
     <row r="261" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B261" t="s">
         <v>224</v>
       </c>
       <c r="D261" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO261" t="s">
         <v>561</v>
@@ -64930,7 +64930,7 @@
         <v>5</v>
       </c>
       <c r="GK261" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="GL261">
         <v>2</v>
@@ -64950,13 +64950,13 @@
     </row>
     <row r="262" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B262" t="s">
         <v>229</v>
       </c>
       <c r="D262" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR262" t="s">
         <v>561</v>
@@ -64995,16 +64995,16 @@
         <v>1</v>
       </c>
       <c r="HG262" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="HH262">
+        <v>0</v>
+      </c>
+      <c r="HJ262">
+        <v>1</v>
+      </c>
+      <c r="HK262" s="2" t="s">
         <v>1758</v>
-      </c>
-      <c r="HH262">
-        <v>0</v>
-      </c>
-      <c r="HJ262">
-        <v>1</v>
-      </c>
-      <c r="HK262" s="2" t="s">
-        <v>1759</v>
       </c>
       <c r="HL262">
         <v>30</v>
@@ -65018,7 +65018,7 @@
     </row>
     <row r="263" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B263" t="s">
         <v>222</v>
@@ -65452,7 +65452,7 @@
     </row>
     <row r="264" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B264" t="s">
         <v>222</v>
@@ -65886,13 +65886,13 @@
     </row>
     <row r="265" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B265" t="s">
         <v>224</v>
       </c>
       <c r="D265" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO265" t="s">
         <v>893</v>
@@ -66053,13 +66053,13 @@
     </row>
     <row r="266" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B266" t="s">
         <v>229</v>
       </c>
       <c r="D266" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR266" t="s">
         <v>893</v>
@@ -66098,7 +66098,7 @@
         <v>1</v>
       </c>
       <c r="HG266" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="HH266">
         <v>0</v>
@@ -66112,7 +66112,7 @@
     </row>
     <row r="267" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B267" t="s">
         <v>222</v>
@@ -66546,13 +66546,13 @@
     </row>
     <row r="268" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B268" t="s">
         <v>224</v>
       </c>
       <c r="D268" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO268" t="s">
         <v>902</v>
@@ -66713,13 +66713,13 @@
     </row>
     <row r="269" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B269" t="s">
         <v>229</v>
       </c>
       <c r="D269" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR269" t="s">
         <v>902</v>
@@ -66758,7 +66758,7 @@
         <v>1</v>
       </c>
       <c r="HG269" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="HH269">
         <v>0</v>
@@ -66767,7 +66767,7 @@
         <v>1</v>
       </c>
       <c r="HK269" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="HL269">
         <v>2</v>
@@ -66781,7 +66781,7 @@
     </row>
     <row r="270" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B270" t="s">
         <v>222</v>
@@ -67215,13 +67215,13 @@
     </row>
     <row r="271" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B271" t="s">
         <v>224</v>
       </c>
       <c r="D271" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO271" t="s">
         <v>911</v>
@@ -67382,13 +67382,13 @@
     </row>
     <row r="272" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B272" t="s">
         <v>229</v>
       </c>
       <c r="D272" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR272" t="s">
         <v>911</v>
@@ -67427,7 +67427,7 @@
         <v>1</v>
       </c>
       <c r="HG272" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="HH272">
         <v>0</v>
@@ -67436,7 +67436,7 @@
         <v>1</v>
       </c>
       <c r="HK272" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="HL272">
         <v>1</v>
@@ -67450,7 +67450,7 @@
     </row>
     <row r="273" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B273" t="s">
         <v>222</v>
@@ -67884,13 +67884,13 @@
     </row>
     <row r="274" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B274" t="s">
         <v>224</v>
       </c>
       <c r="D274" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO274" t="s">
         <v>920</v>
@@ -68051,13 +68051,13 @@
     </row>
     <row r="275" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B275" t="s">
         <v>229</v>
       </c>
       <c r="D275" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR275" t="s">
         <v>920</v>
@@ -68096,7 +68096,7 @@
         <v>1</v>
       </c>
       <c r="HG275" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="HH275">
         <v>0</v>
@@ -68110,7 +68110,7 @@
     </row>
     <row r="276" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B276" t="s">
         <v>222</v>
@@ -68544,13 +68544,13 @@
     </row>
     <row r="277" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B277" t="s">
         <v>224</v>
       </c>
       <c r="D277" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO277" t="s">
         <v>929</v>
@@ -68706,7 +68706,7 @@
         <v>932</v>
       </c>
       <c r="GP277" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="GQ277">
         <v>2</v>
@@ -68714,13 +68714,13 @@
     </row>
     <row r="278" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B278" t="s">
         <v>229</v>
       </c>
       <c r="D278" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR278" t="s">
         <v>929</v>
@@ -68759,7 +68759,7 @@
         <v>1</v>
       </c>
       <c r="HG278" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="HH278">
         <v>0</v>
@@ -68773,7 +68773,7 @@
     </row>
     <row r="279" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B279" t="s">
         <v>222</v>
@@ -69207,13 +69207,13 @@
     </row>
     <row r="280" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B280" t="s">
         <v>224</v>
       </c>
       <c r="D280" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO280" t="s">
         <v>938</v>
@@ -69374,13 +69374,13 @@
     </row>
     <row r="281" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B281" t="s">
         <v>229</v>
       </c>
       <c r="D281" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR281" t="s">
         <v>938</v>
@@ -69419,7 +69419,7 @@
         <v>1</v>
       </c>
       <c r="HG281" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="HH281">
         <v>0</v>
@@ -69433,7 +69433,7 @@
     </row>
     <row r="282" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B282" t="s">
         <v>222</v>
@@ -69867,13 +69867,13 @@
     </row>
     <row r="283" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B283" t="s">
         <v>224</v>
       </c>
       <c r="D283" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO283" t="s">
         <v>947</v>
@@ -70034,13 +70034,13 @@
     </row>
     <row r="284" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B284" t="s">
         <v>229</v>
       </c>
       <c r="D284" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR284" t="s">
         <v>947</v>
@@ -70079,7 +70079,7 @@
         <v>1</v>
       </c>
       <c r="HG284" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="HH284">
         <v>0</v>
@@ -70093,7 +70093,7 @@
     </row>
     <row r="285" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B285" t="s">
         <v>222</v>
@@ -70527,13 +70527,13 @@
     </row>
     <row r="286" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B286" t="s">
         <v>224</v>
       </c>
       <c r="D286" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO286" t="s">
         <v>956</v>
@@ -70694,13 +70694,13 @@
     </row>
     <row r="287" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B287" t="s">
         <v>229</v>
       </c>
       <c r="D287" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR287" t="s">
         <v>956</v>
@@ -70736,13 +70736,13 @@
         <v>1</v>
       </c>
       <c r="HD287" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="HE287">
         <v>1</v>
       </c>
       <c r="HG287" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="HH287">
         <v>0</v>
@@ -70756,7 +70756,7 @@
     </row>
     <row r="288" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B288" t="s">
         <v>222</v>
@@ -71190,7 +71190,7 @@
     </row>
     <row r="289" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B289" t="s">
         <v>222</v>
@@ -71582,7 +71582,7 @@
     </row>
     <row r="290" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B290" t="s">
         <v>222</v>
@@ -72016,13 +72016,13 @@
     </row>
     <row r="291" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B291" t="s">
         <v>224</v>
       </c>
       <c r="D291" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO291" t="s">
         <v>967</v>
@@ -72166,7 +72166,7 @@
         <v>5</v>
       </c>
       <c r="GK291" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="GL291">
         <v>2</v>
@@ -72186,13 +72186,13 @@
     </row>
     <row r="292" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B292" t="s">
         <v>229</v>
       </c>
       <c r="D292" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR292" t="s">
         <v>967</v>
@@ -72231,7 +72231,7 @@
         <v>1</v>
       </c>
       <c r="HG292" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="HH292">
         <v>0</v>
@@ -72245,7 +72245,7 @@
     </row>
     <row r="293" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B293" t="s">
         <v>222</v>
@@ -72679,13 +72679,13 @@
     </row>
     <row r="294" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B294" t="s">
         <v>224</v>
       </c>
       <c r="D294" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO294" t="s">
         <v>976</v>
@@ -72829,7 +72829,7 @@
         <v>5</v>
       </c>
       <c r="GK294" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="GL294">
         <v>2</v>
@@ -72849,13 +72849,13 @@
     </row>
     <row r="295" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B295" t="s">
         <v>229</v>
       </c>
       <c r="D295" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR295" t="s">
         <v>976</v>
@@ -72891,19 +72891,19 @@
         <v>1</v>
       </c>
       <c r="HD295" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="HE295">
+        <v>1</v>
+      </c>
+      <c r="HG295" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="HH295">
+        <v>1</v>
+      </c>
+      <c r="HI295" s="2" t="s">
         <v>1772</v>
-      </c>
-      <c r="HE295">
-        <v>1</v>
-      </c>
-      <c r="HG295" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="HH295">
-        <v>1</v>
-      </c>
-      <c r="HI295" s="2" t="s">
-        <v>1773</v>
       </c>
       <c r="HJ295">
         <v>0</v>
@@ -72914,7 +72914,7 @@
     </row>
     <row r="296" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B296" t="s">
         <v>222</v>
@@ -73348,13 +73348,13 @@
     </row>
     <row r="297" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B297" t="s">
         <v>224</v>
       </c>
       <c r="D297" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO297" t="s">
         <v>985</v>
@@ -73515,13 +73515,13 @@
     </row>
     <row r="298" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B298" t="s">
         <v>229</v>
       </c>
       <c r="D298" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR298" t="s">
         <v>985</v>
@@ -73557,13 +73557,13 @@
         <v>1</v>
       </c>
       <c r="HD298" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="HE298">
         <v>1</v>
       </c>
       <c r="HG298" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="HH298">
         <v>0</v>
@@ -73577,7 +73577,7 @@
     </row>
     <row r="299" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B299" t="s">
         <v>222</v>
@@ -74011,13 +74011,13 @@
     </row>
     <row r="300" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B300" t="s">
         <v>224</v>
       </c>
       <c r="D300" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO300" t="s">
         <v>994</v>
@@ -74173,7 +74173,7 @@
         <v>997</v>
       </c>
       <c r="GP300" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="GQ300">
         <v>2</v>
@@ -74181,13 +74181,13 @@
     </row>
     <row r="301" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B301" t="s">
         <v>229</v>
       </c>
       <c r="D301" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR301" t="s">
         <v>994</v>
@@ -74226,16 +74226,16 @@
         <v>1</v>
       </c>
       <c r="HG301" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="HH301">
+        <v>0</v>
+      </c>
+      <c r="HJ301">
+        <v>1</v>
+      </c>
+      <c r="HK301" s="2" t="s">
         <v>1776</v>
-      </c>
-      <c r="HH301">
-        <v>0</v>
-      </c>
-      <c r="HJ301">
-        <v>1</v>
-      </c>
-      <c r="HK301" s="2" t="s">
-        <v>1777</v>
       </c>
       <c r="HL301">
         <v>1</v>
@@ -74249,7 +74249,7 @@
     </row>
     <row r="302" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B302" t="s">
         <v>222</v>
@@ -74683,13 +74683,13 @@
     </row>
     <row r="303" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B303" t="s">
         <v>224</v>
       </c>
       <c r="D303" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO303" t="s">
         <v>1003</v>
@@ -74850,13 +74850,13 @@
     </row>
     <row r="304" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B304" t="s">
         <v>229</v>
       </c>
       <c r="D304" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR304" t="s">
         <v>1003</v>
@@ -74886,7 +74886,7 @@
         <v>1011</v>
       </c>
       <c r="HA304" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="HB304">
         <v>2</v>
@@ -74898,7 +74898,7 @@
         <v>1</v>
       </c>
       <c r="HG304" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="HH304">
         <v>0</v>
@@ -74912,7 +74912,7 @@
     </row>
     <row r="305" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B305" t="s">
         <v>222</v>
@@ -75346,13 +75346,13 @@
     </row>
     <row r="306" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B306" t="s">
         <v>224</v>
       </c>
       <c r="D306" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO306" t="s">
         <v>1012</v>
@@ -75513,13 +75513,13 @@
     </row>
     <row r="307" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B307" t="s">
         <v>229</v>
       </c>
       <c r="D307" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR307" t="s">
         <v>1012</v>
@@ -75559,7 +75559,7 @@
         <v>1</v>
       </c>
       <c r="HG307" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="HH307">
         <v>0</v>
@@ -75573,7 +75573,7 @@
     </row>
     <row r="308" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B308" t="s">
         <v>222</v>
@@ -76007,7 +76007,7 @@
     </row>
     <row r="309" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B309" t="s">
         <v>222</v>
@@ -76105,7 +76105,7 @@
     </row>
     <row r="310" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B310" t="s">
         <v>222</v>
@@ -76437,7 +76437,7 @@
     </row>
     <row r="311" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B311" t="s">
         <v>222</v>
@@ -76829,7 +76829,7 @@
     </row>
     <row r="312" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -77221,7 +77221,7 @@
     </row>
     <row r="313" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B313" t="s">
         <v>222</v>
@@ -77655,13 +77655,13 @@
     </row>
     <row r="314" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
       </c>
       <c r="D314" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO314" t="s">
         <v>1026</v>
@@ -77822,13 +77822,13 @@
     </row>
     <row r="315" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B315" t="s">
         <v>229</v>
       </c>
       <c r="D315" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR315" t="s">
         <v>1026</v>
@@ -77858,7 +77858,7 @@
         <v>1034</v>
       </c>
       <c r="HA315" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="HB315">
         <v>2</v>
@@ -77870,7 +77870,7 @@
         <v>1</v>
       </c>
       <c r="HG315" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="HH315">
         <v>0</v>
@@ -77884,7 +77884,7 @@
     </row>
     <row r="316" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B316" t="s">
         <v>222</v>
@@ -77934,7 +77934,7 @@
     </row>
     <row r="317" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B317" t="s">
         <v>222</v>
@@ -78368,13 +78368,13 @@
     </row>
     <row r="318" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B318" t="s">
         <v>224</v>
       </c>
       <c r="D318" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO318" t="s">
         <v>1036</v>
@@ -78518,7 +78518,7 @@
         <v>5</v>
       </c>
       <c r="GK318" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="GL318">
         <v>2</v>
@@ -78538,13 +78538,13 @@
     </row>
     <row r="319" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B319" t="s">
         <v>229</v>
       </c>
       <c r="D319" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR319" t="s">
         <v>1036</v>
@@ -78583,7 +78583,7 @@
         <v>1</v>
       </c>
       <c r="HG319" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="HH319">
         <v>0</v>
@@ -78597,7 +78597,7 @@
     </row>
     <row r="320" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B320" t="s">
         <v>222</v>
@@ -79031,13 +79031,13 @@
     </row>
     <row r="321" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B321" t="s">
         <v>224</v>
       </c>
       <c r="D321" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO321" t="s">
         <v>1045</v>
@@ -79193,7 +79193,7 @@
         <v>1048</v>
       </c>
       <c r="GP321" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="GQ321">
         <v>2</v>
@@ -79201,13 +79201,13 @@
     </row>
     <row r="322" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B322" t="s">
         <v>229</v>
       </c>
       <c r="D322" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR322" t="s">
         <v>1045</v>
@@ -79243,13 +79243,13 @@
         <v>1</v>
       </c>
       <c r="HD322" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="HE322">
         <v>1</v>
       </c>
       <c r="HG322" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="HH322">
         <v>0</v>
@@ -79263,7 +79263,7 @@
     </row>
     <row r="323" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B323" t="s">
         <v>222</v>
@@ -79697,13 +79697,13 @@
     </row>
     <row r="324" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B324" t="s">
         <v>224</v>
       </c>
       <c r="D324" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO324" t="s">
         <v>1054</v>
@@ -79864,13 +79864,13 @@
     </row>
     <row r="325" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B325" t="s">
         <v>229</v>
       </c>
       <c r="D325" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR325" t="s">
         <v>1054</v>
@@ -79900,7 +79900,7 @@
         <v>1062</v>
       </c>
       <c r="HA325" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="HB325">
         <v>2</v>
@@ -79912,13 +79912,13 @@
         <v>1</v>
       </c>
       <c r="HG325" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="HH325">
+        <v>1</v>
+      </c>
+      <c r="HI325" s="2" t="s">
         <v>1784</v>
-      </c>
-      <c r="HH325">
-        <v>1</v>
-      </c>
-      <c r="HI325" s="2" t="s">
-        <v>1785</v>
       </c>
       <c r="HJ325">
         <v>0</v>
@@ -79929,7 +79929,7 @@
     </row>
     <row r="326" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B326" t="s">
         <v>222</v>
@@ -80363,13 +80363,13 @@
     </row>
     <row r="327" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B327" t="s">
         <v>224</v>
       </c>
       <c r="D327" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO327" t="s">
         <v>1063</v>
@@ -80530,7 +80530,7 @@
     </row>
     <row r="328" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B328" t="s">
         <v>222</v>
@@ -80964,13 +80964,13 @@
     </row>
     <row r="329" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B329" t="s">
         <v>224</v>
       </c>
       <c r="D329" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO329" t="s">
         <v>646</v>
@@ -81131,13 +81131,13 @@
     </row>
     <row r="330" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B330" t="s">
         <v>229</v>
       </c>
       <c r="D330" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR330" t="s">
         <v>646</v>
@@ -81176,7 +81176,7 @@
         <v>1</v>
       </c>
       <c r="HG330" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="HH330">
         <v>0</v>
@@ -81190,7 +81190,7 @@
     </row>
     <row r="331" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B331" t="s">
         <v>222</v>
@@ -81624,7 +81624,7 @@
     </row>
     <row r="332" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B332" t="s">
         <v>222</v>
@@ -82058,7 +82058,7 @@
     </row>
     <row r="333" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B333" t="s">
         <v>222</v>
@@ -82492,13 +82492,13 @@
     </row>
     <row r="334" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B334" t="s">
         <v>224</v>
       </c>
       <c r="D334" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO334" t="s">
         <v>1077</v>
@@ -82659,13 +82659,13 @@
     </row>
     <row r="335" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B335" t="s">
         <v>229</v>
       </c>
       <c r="D335" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR335" t="s">
         <v>1077</v>
@@ -82680,7 +82680,7 @@
         <v>2</v>
       </c>
       <c r="HA335" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="HB335">
         <v>0</v>
@@ -82691,7 +82691,7 @@
     </row>
     <row r="336" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B336" t="s">
         <v>222</v>
@@ -83125,13 +83125,13 @@
     </row>
     <row r="337" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B337" t="s">
         <v>224</v>
       </c>
       <c r="D337" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO337" t="s">
         <v>1081</v>
@@ -83292,13 +83292,13 @@
     </row>
     <row r="338" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B338" t="s">
         <v>229</v>
       </c>
       <c r="D338" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR338" t="s">
         <v>1081</v>
@@ -83334,19 +83334,19 @@
         <v>1</v>
       </c>
       <c r="HD338" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="HE338">
         <v>1</v>
       </c>
       <c r="HG338" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="HH338">
         <v>1</v>
       </c>
       <c r="HI338" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="HJ338">
         <v>0</v>
@@ -83357,7 +83357,7 @@
     </row>
     <row r="339" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B339" t="s">
         <v>222</v>
@@ -83791,13 +83791,13 @@
     </row>
     <row r="340" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B340" t="s">
         <v>224</v>
       </c>
       <c r="D340" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO340" t="s">
         <v>1090</v>
@@ -83953,7 +83953,7 @@
         <v>1093</v>
       </c>
       <c r="GP340" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="GQ340">
         <v>2</v>
@@ -83961,13 +83961,13 @@
     </row>
     <row r="341" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B341" t="s">
         <v>229</v>
       </c>
       <c r="D341" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR341" t="s">
         <v>1090</v>
@@ -84003,13 +84003,13 @@
         <v>1</v>
       </c>
       <c r="HD341" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="HE341">
         <v>1</v>
       </c>
       <c r="HG341" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="HH341">
         <v>0</v>
@@ -84023,7 +84023,7 @@
     </row>
     <row r="342" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B342" t="s">
         <v>222</v>
@@ -84457,13 +84457,13 @@
     </row>
     <row r="343" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B343" t="s">
         <v>224</v>
       </c>
       <c r="D343" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO343" t="s">
         <v>1099</v>
@@ -84624,13 +84624,13 @@
     </row>
     <row r="344" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B344" t="s">
         <v>229</v>
       </c>
       <c r="D344" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR344" t="s">
         <v>1099</v>
@@ -84669,7 +84669,7 @@
         <v>1</v>
       </c>
       <c r="HG344" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="HH344">
         <v>0</v>
@@ -84683,7 +84683,7 @@
     </row>
     <row r="345" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B345" t="s">
         <v>222</v>
@@ -85117,13 +85117,13 @@
     </row>
     <row r="346" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B346" t="s">
         <v>224</v>
       </c>
       <c r="D346" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO346" t="s">
         <v>1108</v>
@@ -85279,7 +85279,7 @@
         <v>1111</v>
       </c>
       <c r="GP346" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="GQ346">
         <v>2</v>
@@ -85287,7 +85287,7 @@
     </row>
     <row r="347" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B347" t="s">
         <v>222</v>
@@ -85721,13 +85721,13 @@
     </row>
     <row r="348" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B348" t="s">
         <v>224</v>
       </c>
       <c r="D348" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO348" t="s">
         <v>1112</v>
@@ -85883,7 +85883,7 @@
         <v>1115</v>
       </c>
       <c r="GP348" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="GQ348">
         <v>2</v>
@@ -85891,13 +85891,13 @@
     </row>
     <row r="349" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B349" t="s">
         <v>229</v>
       </c>
       <c r="D349" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR349" t="s">
         <v>1112</v>
@@ -85927,7 +85927,7 @@
         <v>1120</v>
       </c>
       <c r="HA349" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="HB349">
         <v>2</v>
@@ -85936,19 +85936,19 @@
         <v>1</v>
       </c>
       <c r="HD349" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="HE349">
+        <v>1</v>
+      </c>
+      <c r="HG349" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="HH349">
+        <v>1</v>
+      </c>
+      <c r="HI349" s="2" t="s">
         <v>1792</v>
-      </c>
-      <c r="HE349">
-        <v>1</v>
-      </c>
-      <c r="HG349" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="HH349">
-        <v>1</v>
-      </c>
-      <c r="HI349" s="2" t="s">
-        <v>1793</v>
       </c>
       <c r="HJ349">
         <v>0</v>
@@ -85959,7 +85959,7 @@
     </row>
     <row r="350" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B350" t="s">
         <v>222</v>
@@ -86393,13 +86393,13 @@
     </row>
     <row r="351" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B351" t="s">
         <v>224</v>
       </c>
       <c r="D351" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO351" t="s">
         <v>1121</v>
@@ -86560,13 +86560,13 @@
     </row>
     <row r="352" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B352" t="s">
         <v>229</v>
       </c>
       <c r="D352" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR352" t="s">
         <v>1121</v>
@@ -86596,7 +86596,7 @@
         <v>1129</v>
       </c>
       <c r="HA352" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="HB352">
         <v>2</v>
@@ -86608,7 +86608,7 @@
         <v>1</v>
       </c>
       <c r="HG352" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="HH352">
         <v>0</v>
@@ -86622,7 +86622,7 @@
     </row>
     <row r="353" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B353" t="s">
         <v>222</v>
@@ -87056,13 +87056,13 @@
     </row>
     <row r="354" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B354" t="s">
         <v>224</v>
       </c>
       <c r="D354" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO354" t="s">
         <v>1130</v>
@@ -87206,7 +87206,7 @@
         <v>5</v>
       </c>
       <c r="GK354" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="GL354">
         <v>2</v>
@@ -87221,7 +87221,7 @@
         <v>1133</v>
       </c>
       <c r="GP354" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="GQ354">
         <v>2</v>
@@ -87229,13 +87229,13 @@
     </row>
     <row r="355" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B355" t="s">
         <v>229</v>
       </c>
       <c r="D355" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR355" t="s">
         <v>1130</v>
@@ -87274,13 +87274,13 @@
         <v>1</v>
       </c>
       <c r="HG355" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="HH355">
+        <v>1</v>
+      </c>
+      <c r="HI355" s="2" t="s">
         <v>1795</v>
-      </c>
-      <c r="HH355">
-        <v>1</v>
-      </c>
-      <c r="HI355" s="2" t="s">
-        <v>1796</v>
       </c>
       <c r="HJ355">
         <v>0</v>
@@ -87291,7 +87291,7 @@
     </row>
     <row r="356" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B356" t="s">
         <v>222</v>
@@ -87725,13 +87725,13 @@
     </row>
     <row r="357" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B357" t="s">
         <v>224</v>
       </c>
       <c r="D357" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO357" t="s">
         <v>1139</v>
@@ -87875,7 +87875,7 @@
         <v>5</v>
       </c>
       <c r="GK357" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="GL357">
         <v>2</v>
@@ -87895,13 +87895,13 @@
     </row>
     <row r="358" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B358" t="s">
         <v>229</v>
       </c>
       <c r="D358" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR358" t="s">
         <v>1139</v>
@@ -87937,19 +87937,19 @@
         <v>1</v>
       </c>
       <c r="HD358" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="HE358">
         <v>1</v>
       </c>
       <c r="HG358" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="HH358">
         <v>1</v>
       </c>
       <c r="HI358" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="HJ358">
         <v>0</v>
@@ -87960,7 +87960,7 @@
     </row>
     <row r="359" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B359" t="s">
         <v>222</v>
@@ -88394,13 +88394,13 @@
     </row>
     <row r="360" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B360" t="s">
         <v>224</v>
       </c>
       <c r="D360" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO360" t="s">
         <v>1148</v>
@@ -88561,13 +88561,13 @@
     </row>
     <row r="361" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B361" t="s">
         <v>229</v>
       </c>
       <c r="D361" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR361" t="s">
         <v>1148</v>
@@ -88606,7 +88606,7 @@
         <v>1</v>
       </c>
       <c r="HG361" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="HH361">
         <v>0</v>
@@ -88620,7 +88620,7 @@
     </row>
     <row r="362" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B362" t="s">
         <v>222</v>
@@ -89054,7 +89054,7 @@
     </row>
     <row r="363" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B363" t="s">
         <v>222</v>
@@ -89386,7 +89386,7 @@
     </row>
     <row r="364" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B364" t="s">
         <v>222</v>
@@ -89820,13 +89820,13 @@
     </row>
     <row r="365" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B365" t="s">
         <v>224</v>
       </c>
       <c r="D365" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO365" t="s">
         <v>1159</v>
@@ -89987,13 +89987,13 @@
     </row>
     <row r="366" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B366" t="s">
         <v>229</v>
       </c>
       <c r="D366" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR366" t="s">
         <v>1159</v>
@@ -90032,7 +90032,7 @@
         <v>1</v>
       </c>
       <c r="HG366" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="HH366">
         <v>0</v>
@@ -90046,7 +90046,7 @@
     </row>
     <row r="367" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B367" t="s">
         <v>222</v>
@@ -90480,13 +90480,13 @@
     </row>
     <row r="368" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B368" t="s">
         <v>224</v>
       </c>
       <c r="D368" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO368" t="s">
         <v>1168</v>
@@ -90647,13 +90647,13 @@
     </row>
     <row r="369" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B369" t="s">
         <v>229</v>
       </c>
       <c r="D369" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR369" t="s">
         <v>1168</v>
@@ -90692,7 +90692,7 @@
         <v>1</v>
       </c>
       <c r="HG369" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="HH369">
         <v>0</v>
@@ -90706,7 +90706,7 @@
     </row>
     <row r="370" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B370" t="s">
         <v>222</v>
@@ -90756,7 +90756,7 @@
     </row>
     <row r="371" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B371" t="s">
         <v>222</v>
@@ -91058,7 +91058,7 @@
     </row>
     <row r="372" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B372" t="s">
         <v>222</v>
@@ -91492,13 +91492,13 @@
     </row>
     <row r="373" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B373" t="s">
         <v>224</v>
       </c>
       <c r="D373" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO373" t="s">
         <v>1179</v>
@@ -91642,7 +91642,7 @@
         <v>5</v>
       </c>
       <c r="GK373" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="GL373">
         <v>2</v>
@@ -91662,13 +91662,13 @@
     </row>
     <row r="374" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B374" t="s">
         <v>229</v>
       </c>
       <c r="D374" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR374" t="s">
         <v>1179</v>
@@ -91704,19 +91704,19 @@
         <v>1</v>
       </c>
       <c r="HD374" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="HE374">
+        <v>1</v>
+      </c>
+      <c r="HG374" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="HE374">
-        <v>1</v>
-      </c>
-      <c r="HG374" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="HH374">
         <v>1</v>
       </c>
       <c r="HI374" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="HJ374">
         <v>0</v>
@@ -91727,7 +91727,7 @@
     </row>
     <row r="375" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B375" t="s">
         <v>222</v>
@@ -91777,7 +91777,7 @@
     </row>
     <row r="376" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B376" t="s">
         <v>222</v>
@@ -92211,13 +92211,13 @@
     </row>
     <row r="377" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B377" t="s">
         <v>224</v>
       </c>
       <c r="D377" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO377" t="s">
         <v>1188</v>
@@ -92378,13 +92378,13 @@
     </row>
     <row r="378" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B378" t="s">
         <v>229</v>
       </c>
       <c r="D378" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR378" t="s">
         <v>1188</v>
@@ -92423,7 +92423,7 @@
         <v>1</v>
       </c>
       <c r="HG378" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="HH378">
         <v>0</v>
@@ -92437,7 +92437,7 @@
     </row>
     <row r="379" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B379" t="s">
         <v>222</v>
@@ -92871,13 +92871,13 @@
     </row>
     <row r="380" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B380" t="s">
         <v>224</v>
       </c>
       <c r="D380" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO380" t="s">
         <v>1197</v>
@@ -93038,13 +93038,13 @@
     </row>
     <row r="381" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B381" t="s">
         <v>229</v>
       </c>
       <c r="D381" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR381" t="s">
         <v>1197</v>
@@ -93074,7 +93074,7 @@
         <v>1205</v>
       </c>
       <c r="HA381" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="HB381">
         <v>2</v>
@@ -93086,7 +93086,7 @@
         <v>1</v>
       </c>
       <c r="HG381" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="HH381">
         <v>0</v>
@@ -93100,7 +93100,7 @@
     </row>
     <row r="382" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B382" t="s">
         <v>222</v>
@@ -93534,13 +93534,13 @@
     </row>
     <row r="383" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B383" t="s">
         <v>224</v>
       </c>
       <c r="D383" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO383" t="s">
         <v>1206</v>
@@ -93684,7 +93684,7 @@
         <v>5</v>
       </c>
       <c r="GK383" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="GL383">
         <v>2</v>
@@ -93699,7 +93699,7 @@
         <v>1209</v>
       </c>
       <c r="GP383" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="GQ383">
         <v>2</v>
@@ -93707,13 +93707,13 @@
     </row>
     <row r="384" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B384" t="s">
         <v>229</v>
       </c>
       <c r="D384" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR384" t="s">
         <v>1206</v>
@@ -93749,13 +93749,13 @@
         <v>1</v>
       </c>
       <c r="HD384" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="HE384">
         <v>1</v>
       </c>
       <c r="HG384" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="HH384">
         <v>0</v>
@@ -93769,7 +93769,7 @@
     </row>
     <row r="385" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B385" t="s">
         <v>222</v>
@@ -94203,13 +94203,13 @@
     </row>
     <row r="386" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B386" t="s">
         <v>224</v>
       </c>
       <c r="D386" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO386" t="s">
         <v>1215</v>
@@ -94370,13 +94370,13 @@
     </row>
     <row r="387" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B387" t="s">
         <v>229</v>
       </c>
       <c r="D387" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR387" t="s">
         <v>1215</v>
@@ -94415,7 +94415,7 @@
         <v>1</v>
       </c>
       <c r="HG387" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="HH387">
         <v>0</v>
@@ -94429,7 +94429,7 @@
     </row>
     <row r="388" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B388" t="s">
         <v>222</v>
@@ -94479,7 +94479,7 @@
     </row>
     <row r="389" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B389" t="s">
         <v>222</v>
@@ -94913,13 +94913,13 @@
     </row>
     <row r="390" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B390" t="s">
         <v>224</v>
       </c>
       <c r="D390" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO390" t="s">
         <v>1225</v>
@@ -95063,7 +95063,7 @@
         <v>5</v>
       </c>
       <c r="GK390" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="GL390">
         <v>2</v>
@@ -95084,13 +95084,13 @@
     </row>
     <row r="391" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B391" t="s">
         <v>229</v>
       </c>
       <c r="D391" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR391" t="s">
         <v>1225</v>
@@ -95129,7 +95129,7 @@
         <v>1</v>
       </c>
       <c r="HG391" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="HH391">
         <v>0</v>
@@ -95143,7 +95143,7 @@
     </row>
     <row r="392" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B392" t="s">
         <v>222</v>
@@ -95577,13 +95577,13 @@
     </row>
     <row r="393" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B393" t="s">
         <v>224</v>
       </c>
       <c r="D393" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO393" t="s">
         <v>1234</v>
@@ -95727,7 +95727,7 @@
         <v>5</v>
       </c>
       <c r="GK393" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="GL393">
         <v>2</v>
@@ -95742,7 +95742,7 @@
         <v>1237</v>
       </c>
       <c r="GP393" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="GQ393">
         <v>2</v>
@@ -95750,13 +95750,13 @@
     </row>
     <row r="394" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B394" t="s">
         <v>229</v>
       </c>
       <c r="D394" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR394" t="s">
         <v>1234</v>
@@ -95795,7 +95795,7 @@
         <v>1</v>
       </c>
       <c r="HG394" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="HH394">
         <v>0</v>
@@ -95809,7 +95809,7 @@
     </row>
     <row r="395" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B395" t="s">
         <v>222</v>
@@ -96243,13 +96243,13 @@
     </row>
     <row r="396" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B396" t="s">
         <v>224</v>
       </c>
       <c r="D396" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO396" t="s">
         <v>1243</v>
@@ -96410,13 +96410,13 @@
     </row>
     <row r="397" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B397" t="s">
         <v>229</v>
       </c>
       <c r="D397" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR397" t="s">
         <v>1243</v>
@@ -96452,13 +96452,13 @@
         <v>1</v>
       </c>
       <c r="HD397" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="HE397">
         <v>1</v>
       </c>
       <c r="HG397" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="HH397">
         <v>0</v>
@@ -96472,7 +96472,7 @@
     </row>
     <row r="398" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B398" t="s">
         <v>222</v>
@@ -96480,8 +96480,8 @@
       <c r="C398">
         <v>1</v>
       </c>
-      <c r="D398" t="s">
-        <v>1252</v>
+      <c r="D398" s="2" t="s">
+        <v>1847</v>
       </c>
       <c r="E398">
         <v>2</v>
@@ -96906,16 +96906,16 @@
     </row>
     <row r="399" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B399" t="s">
         <v>224</v>
       </c>
       <c r="D399" t="s">
-        <v>1389</v>
-      </c>
-      <c r="EO399" t="s">
-        <v>1252</v>
+        <v>1388</v>
+      </c>
+      <c r="EO399" s="2" t="s">
+        <v>1847</v>
       </c>
       <c r="EP399" t="s">
         <v>458</v>
@@ -97059,16 +97059,16 @@
         <v>2</v>
       </c>
       <c r="GM399" t="s">
+        <v>1252</v>
+      </c>
+      <c r="GN399" t="s">
         <v>1253</v>
       </c>
-      <c r="GN399" t="s">
+      <c r="GO399" t="s">
         <v>1254</v>
       </c>
-      <c r="GO399" t="s">
-        <v>1255</v>
-      </c>
       <c r="GP399" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="GQ399">
         <v>2</v>
@@ -97076,16 +97076,16 @@
     </row>
     <row r="400" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B400" t="s">
         <v>229</v>
       </c>
       <c r="D400" t="s">
-        <v>1389</v>
-      </c>
-      <c r="GR400" t="s">
-        <v>1252</v>
+        <v>1388</v>
+      </c>
+      <c r="GR400" s="2" t="s">
+        <v>1847</v>
       </c>
       <c r="GS400" t="s">
         <v>458</v>
@@ -97097,22 +97097,22 @@
         <v>2</v>
       </c>
       <c r="GV400" t="s">
+        <v>1255</v>
+      </c>
+      <c r="GW400" t="s">
         <v>1256</v>
       </c>
-      <c r="GW400" t="s">
+      <c r="GX400" t="s">
         <v>1257</v>
       </c>
-      <c r="GX400" t="s">
+      <c r="GY400" t="s">
         <v>1258</v>
       </c>
-      <c r="GY400" t="s">
+      <c r="GZ400" t="s">
         <v>1259</v>
       </c>
-      <c r="GZ400" t="s">
-        <v>1260</v>
-      </c>
       <c r="HA400" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="HB400">
         <v>2</v>
@@ -97121,13 +97121,13 @@
         <v>1</v>
       </c>
       <c r="HD400" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="HE400">
+        <v>1</v>
+      </c>
+      <c r="HG400" s="2" t="s">
         <v>1810</v>
-      </c>
-      <c r="HE400">
-        <v>1</v>
-      </c>
-      <c r="HG400" s="2" t="s">
-        <v>1811</v>
       </c>
       <c r="HH400">
         <v>0</v>
@@ -97141,7 +97141,7 @@
     </row>
     <row r="401" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B401" t="s">
         <v>222</v>
@@ -97150,7 +97150,7 @@
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E401">
         <v>2</v>
@@ -97575,7 +97575,7 @@
     </row>
     <row r="402" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B402" t="s">
         <v>222</v>
@@ -97584,7 +97584,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E402">
         <v>2</v>
@@ -98009,16 +98009,16 @@
     </row>
     <row r="403" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B403" t="s">
         <v>224</v>
       </c>
       <c r="D403" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO403" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="EP403" t="s">
         <v>458</v>
@@ -98162,13 +98162,13 @@
         <v>2</v>
       </c>
       <c r="GM403" t="s">
+        <v>1262</v>
+      </c>
+      <c r="GN403" t="s">
         <v>1263</v>
       </c>
-      <c r="GN403" t="s">
+      <c r="GO403" t="s">
         <v>1264</v>
-      </c>
-      <c r="GO403" t="s">
-        <v>1265</v>
       </c>
       <c r="GQ403">
         <v>2</v>
@@ -98176,16 +98176,16 @@
     </row>
     <row r="404" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B404" t="s">
         <v>229</v>
       </c>
       <c r="D404" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR404" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="GS404" t="s">
         <v>458</v>
@@ -98197,20 +98197,20 @@
         <v>2</v>
       </c>
       <c r="GV404" t="s">
+        <v>1265</v>
+      </c>
+      <c r="GW404" t="s">
         <v>1266</v>
       </c>
-      <c r="GW404" t="s">
+      <c r="GX404" t="s">
         <v>1267</v>
       </c>
-      <c r="GX404" t="s">
+      <c r="GY404" t="s">
         <v>1268</v>
       </c>
-      <c r="GY404" t="s">
+      <c r="GZ404" t="s">
         <v>1269</v>
       </c>
-      <c r="GZ404" t="s">
-        <v>1270</v>
-      </c>
       <c r="HB404">
         <v>2</v>
       </c>
@@ -98221,13 +98221,13 @@
         <v>1</v>
       </c>
       <c r="HG404" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="HH404">
+        <v>1</v>
+      </c>
+      <c r="HI404" s="2" t="s">
         <v>1812</v>
-      </c>
-      <c r="HH404">
-        <v>1</v>
-      </c>
-      <c r="HI404" s="2" t="s">
-        <v>1813</v>
       </c>
       <c r="HJ404">
         <v>0</v>
@@ -98238,7 +98238,7 @@
     </row>
     <row r="405" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B405" t="s">
         <v>222</v>
@@ -98247,7 +98247,7 @@
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E405">
         <v>2</v>
@@ -98672,7 +98672,7 @@
     </row>
     <row r="406" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B406" t="s">
         <v>222</v>
@@ -98681,7 +98681,7 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E406">
         <v>2</v>
@@ -99106,16 +99106,16 @@
     </row>
     <row r="407" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B407" t="s">
         <v>224</v>
       </c>
       <c r="D407" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO407" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="EP407" t="s">
         <v>230</v>
@@ -99259,16 +99259,16 @@
         <v>2</v>
       </c>
       <c r="GM407" t="s">
+        <v>1272</v>
+      </c>
+      <c r="GN407" t="s">
         <v>1273</v>
       </c>
-      <c r="GN407" t="s">
+      <c r="GO407" t="s">
         <v>1274</v>
       </c>
-      <c r="GO407" t="s">
-        <v>1275</v>
-      </c>
       <c r="GP407" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="GQ407">
         <v>2</v>
@@ -99276,16 +99276,16 @@
     </row>
     <row r="408" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B408" t="s">
         <v>229</v>
       </c>
       <c r="D408" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR408" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="GS408" t="s">
         <v>225</v>
@@ -99297,20 +99297,20 @@
         <v>2</v>
       </c>
       <c r="GV408" t="s">
+        <v>1275</v>
+      </c>
+      <c r="GW408" t="s">
         <v>1276</v>
       </c>
-      <c r="GW408" t="s">
+      <c r="GX408" t="s">
         <v>1277</v>
       </c>
-      <c r="GX408" t="s">
+      <c r="GY408" t="s">
         <v>1278</v>
       </c>
-      <c r="GY408" t="s">
+      <c r="GZ408" t="s">
         <v>1279</v>
       </c>
-      <c r="GZ408" t="s">
-        <v>1280</v>
-      </c>
       <c r="HB408">
         <v>2</v>
       </c>
@@ -99321,7 +99321,7 @@
         <v>1</v>
       </c>
       <c r="HG408" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="HH408">
         <v>0</v>
@@ -99335,7 +99335,7 @@
     </row>
     <row r="409" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B409" t="s">
         <v>222</v>
@@ -99344,7 +99344,7 @@
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E409">
         <v>2</v>
@@ -99637,7 +99637,7 @@
     </row>
     <row r="410" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B410" t="s">
         <v>222</v>
@@ -99646,7 +99646,7 @@
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E410">
         <v>2</v>
@@ -99687,7 +99687,7 @@
     </row>
     <row r="411" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B411" t="s">
         <v>222</v>
@@ -99696,7 +99696,7 @@
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E411">
         <v>2</v>
@@ -100121,7 +100121,7 @@
     </row>
     <row r="412" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B412" t="s">
         <v>222</v>
@@ -100130,7 +100130,7 @@
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E412">
         <v>2</v>
@@ -100555,7 +100555,7 @@
     </row>
     <row r="413" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B413" t="s">
         <v>222</v>
@@ -100564,7 +100564,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E413">
         <v>2</v>
@@ -100989,7 +100989,7 @@
     </row>
     <row r="414" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B414" t="s">
         <v>222</v>
@@ -100998,7 +100998,7 @@
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E414">
         <v>2</v>
@@ -101423,16 +101423,16 @@
     </row>
     <row r="415" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B415" t="s">
         <v>224</v>
       </c>
       <c r="D415" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO415" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="EP415" t="s">
         <v>458</v>
@@ -101573,22 +101573,22 @@
         <v>5</v>
       </c>
       <c r="GK415" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="GL415">
         <v>2</v>
       </c>
       <c r="GM415" t="s">
+        <v>1286</v>
+      </c>
+      <c r="GN415" t="s">
         <v>1287</v>
       </c>
-      <c r="GN415" t="s">
+      <c r="GO415" t="s">
         <v>1288</v>
       </c>
-      <c r="GO415" t="s">
-        <v>1289</v>
-      </c>
       <c r="GP415" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="GQ415">
         <v>2</v>
@@ -101596,16 +101596,16 @@
     </row>
     <row r="416" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B416" t="s">
         <v>229</v>
       </c>
       <c r="D416" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR416" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="GS416" t="s">
         <v>458</v>
@@ -101617,20 +101617,20 @@
         <v>2</v>
       </c>
       <c r="GV416" t="s">
+        <v>1289</v>
+      </c>
+      <c r="GW416" t="s">
         <v>1290</v>
       </c>
-      <c r="GW416" t="s">
+      <c r="GX416" t="s">
         <v>1291</v>
       </c>
-      <c r="GX416" t="s">
+      <c r="GY416" t="s">
         <v>1292</v>
       </c>
-      <c r="GY416" t="s">
+      <c r="GZ416" t="s">
         <v>1293</v>
       </c>
-      <c r="GZ416" t="s">
-        <v>1294</v>
-      </c>
       <c r="HB416">
         <v>2</v>
       </c>
@@ -101641,7 +101641,7 @@
         <v>1</v>
       </c>
       <c r="HG416" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="HH416">
         <v>0</v>
@@ -101655,7 +101655,7 @@
     </row>
     <row r="417" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B417" t="s">
         <v>222</v>
@@ -101664,7 +101664,7 @@
         <v>1</v>
       </c>
       <c r="D417" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E417">
         <v>2</v>
@@ -102047,7 +102047,7 @@
     </row>
     <row r="418" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B418" t="s">
         <v>222</v>
@@ -102056,7 +102056,7 @@
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E418">
         <v>2</v>
@@ -102481,16 +102481,16 @@
     </row>
     <row r="419" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B419" t="s">
         <v>224</v>
       </c>
       <c r="D419" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO419" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="EP419" t="s">
         <v>225</v>
@@ -102634,13 +102634,13 @@
         <v>2</v>
       </c>
       <c r="GM419" t="s">
+        <v>1296</v>
+      </c>
+      <c r="GN419" t="s">
         <v>1297</v>
       </c>
-      <c r="GN419" t="s">
+      <c r="GO419" t="s">
         <v>1298</v>
-      </c>
-      <c r="GO419" t="s">
-        <v>1299</v>
       </c>
       <c r="GQ419">
         <v>2</v>
@@ -102648,16 +102648,16 @@
     </row>
     <row r="420" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B420" t="s">
         <v>229</v>
       </c>
       <c r="D420" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR420" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="GS420" t="s">
         <v>230</v>
@@ -102669,20 +102669,20 @@
         <v>2</v>
       </c>
       <c r="GV420" t="s">
+        <v>1299</v>
+      </c>
+      <c r="GW420" t="s">
         <v>1300</v>
       </c>
-      <c r="GW420" t="s">
+      <c r="GX420" t="s">
         <v>1301</v>
       </c>
-      <c r="GX420" t="s">
+      <c r="GY420" t="s">
         <v>1302</v>
       </c>
-      <c r="GY420" t="s">
+      <c r="GZ420" t="s">
         <v>1303</v>
       </c>
-      <c r="GZ420" t="s">
-        <v>1304</v>
-      </c>
       <c r="HB420">
         <v>2</v>
       </c>
@@ -102693,7 +102693,7 @@
         <v>1</v>
       </c>
       <c r="HG420" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="HH420">
         <v>0</v>
@@ -102707,7 +102707,7 @@
     </row>
     <row r="421" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B421" t="s">
         <v>222</v>
@@ -102716,7 +102716,7 @@
         <v>1</v>
       </c>
       <c r="D421" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E421">
         <v>2</v>
@@ -103039,7 +103039,7 @@
     </row>
     <row r="422" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B422" t="s">
         <v>222</v>
@@ -103048,7 +103048,7 @@
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E422">
         <v>2</v>
@@ -103473,16 +103473,16 @@
     </row>
     <row r="423" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B423" t="s">
         <v>224</v>
       </c>
       <c r="D423" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO423" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="EP423" t="s">
         <v>230</v>
@@ -103623,19 +103623,19 @@
         <v>5</v>
       </c>
       <c r="GK423" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="GL423">
         <v>2</v>
       </c>
       <c r="GM423" t="s">
+        <v>1306</v>
+      </c>
+      <c r="GN423" t="s">
         <v>1307</v>
       </c>
-      <c r="GN423" t="s">
+      <c r="GO423" t="s">
         <v>1308</v>
-      </c>
-      <c r="GO423" t="s">
-        <v>1309</v>
       </c>
       <c r="GQ423">
         <v>2</v>
@@ -103643,16 +103643,16 @@
     </row>
     <row r="424" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B424" t="s">
         <v>229</v>
       </c>
       <c r="D424" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR424" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="GS424" t="s">
         <v>230</v>
@@ -103664,20 +103664,20 @@
         <v>2</v>
       </c>
       <c r="GV424" t="s">
+        <v>1309</v>
+      </c>
+      <c r="GW424" t="s">
         <v>1310</v>
       </c>
-      <c r="GW424" t="s">
+      <c r="GX424" t="s">
         <v>1311</v>
       </c>
-      <c r="GX424" t="s">
+      <c r="GY424" t="s">
         <v>1312</v>
       </c>
-      <c r="GY424" t="s">
+      <c r="GZ424" t="s">
         <v>1313</v>
       </c>
-      <c r="GZ424" t="s">
-        <v>1314</v>
-      </c>
       <c r="HB424">
         <v>2</v>
       </c>
@@ -103688,7 +103688,7 @@
         <v>1</v>
       </c>
       <c r="HG424" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="HH424">
         <v>0</v>
@@ -103702,7 +103702,7 @@
     </row>
     <row r="425" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B425" t="s">
         <v>222</v>
@@ -103711,7 +103711,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E425">
         <v>2</v>
@@ -104136,16 +104136,16 @@
     </row>
     <row r="426" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B426" t="s">
         <v>224</v>
       </c>
       <c r="D426" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO426" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="EP426" t="s">
         <v>458</v>
@@ -104286,19 +104286,19 @@
         <v>5</v>
       </c>
       <c r="GK426" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="GL426">
         <v>2</v>
       </c>
       <c r="GM426" t="s">
+        <v>1314</v>
+      </c>
+      <c r="GN426" t="s">
         <v>1315</v>
       </c>
-      <c r="GN426" t="s">
+      <c r="GO426" t="s">
         <v>1316</v>
-      </c>
-      <c r="GO426" t="s">
-        <v>1317</v>
       </c>
       <c r="GQ426">
         <v>2</v>
@@ -104306,16 +104306,16 @@
     </row>
     <row r="427" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B427" t="s">
         <v>229</v>
       </c>
       <c r="D427" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR427" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="GS427" t="s">
         <v>458</v>
@@ -104327,20 +104327,20 @@
         <v>2</v>
       </c>
       <c r="GV427" t="s">
+        <v>1318</v>
+      </c>
+      <c r="GW427" t="s">
         <v>1319</v>
       </c>
-      <c r="GW427" t="s">
+      <c r="GX427" t="s">
         <v>1320</v>
       </c>
-      <c r="GX427" t="s">
+      <c r="GY427" t="s">
         <v>1321</v>
       </c>
-      <c r="GY427" t="s">
+      <c r="GZ427" t="s">
         <v>1322</v>
       </c>
-      <c r="GZ427" t="s">
-        <v>1323</v>
-      </c>
       <c r="HB427">
         <v>2</v>
       </c>
@@ -104348,19 +104348,19 @@
         <v>1</v>
       </c>
       <c r="HD427" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="HE427">
+        <v>1</v>
+      </c>
+      <c r="HG427" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="HH427">
+        <v>1</v>
+      </c>
+      <c r="HI427" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="HE427">
-        <v>1</v>
-      </c>
-      <c r="HG427" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="HH427">
-        <v>1</v>
-      </c>
-      <c r="HI427" s="2" t="s">
-        <v>1820</v>
       </c>
       <c r="HJ427">
         <v>0</v>
@@ -104371,7 +104371,7 @@
     </row>
     <row r="428" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B428" t="s">
         <v>222</v>
@@ -104380,7 +104380,7 @@
         <v>1</v>
       </c>
       <c r="D428" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E428">
         <v>2</v>
@@ -104805,16 +104805,16 @@
     </row>
     <row r="429" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B429" t="s">
         <v>224</v>
       </c>
       <c r="D429" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO429" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="EP429" t="s">
         <v>230</v>
@@ -104958,16 +104958,16 @@
         <v>2</v>
       </c>
       <c r="GM429" t="s">
+        <v>1324</v>
+      </c>
+      <c r="GN429" t="s">
         <v>1325</v>
       </c>
-      <c r="GN429" t="s">
+      <c r="GO429" t="s">
         <v>1326</v>
       </c>
-      <c r="GO429" t="s">
-        <v>1327</v>
-      </c>
       <c r="GP429" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="GQ429">
         <v>2</v>
@@ -104975,16 +104975,16 @@
     </row>
     <row r="430" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B430" t="s">
         <v>229</v>
       </c>
       <c r="D430" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR430" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="GS430" t="s">
         <v>230</v>
@@ -104996,20 +104996,20 @@
         <v>2</v>
       </c>
       <c r="GV430" t="s">
+        <v>1327</v>
+      </c>
+      <c r="GW430" t="s">
         <v>1328</v>
       </c>
-      <c r="GW430" t="s">
+      <c r="GX430" t="s">
         <v>1329</v>
       </c>
-      <c r="GX430" t="s">
+      <c r="GY430" t="s">
         <v>1330</v>
       </c>
-      <c r="GY430" t="s">
+      <c r="GZ430" t="s">
         <v>1331</v>
       </c>
-      <c r="GZ430" t="s">
-        <v>1332</v>
-      </c>
       <c r="HB430">
         <v>2</v>
       </c>
@@ -105020,7 +105020,7 @@
         <v>1</v>
       </c>
       <c r="HG430" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="HH430">
         <v>0</v>
@@ -105034,7 +105034,7 @@
     </row>
     <row r="431" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B431" t="s">
         <v>222</v>
@@ -105043,7 +105043,7 @@
         <v>1</v>
       </c>
       <c r="D431" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E431">
         <v>2</v>
@@ -105468,16 +105468,16 @@
     </row>
     <row r="432" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B432" t="s">
         <v>224</v>
       </c>
       <c r="D432" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO432" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="EP432" t="s">
         <v>230</v>
@@ -105618,19 +105618,19 @@
         <v>5</v>
       </c>
       <c r="GK432" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="GL432">
         <v>2</v>
       </c>
       <c r="GM432" t="s">
+        <v>1333</v>
+      </c>
+      <c r="GN432" t="s">
         <v>1334</v>
       </c>
-      <c r="GN432" t="s">
+      <c r="GO432" t="s">
         <v>1335</v>
-      </c>
-      <c r="GO432" t="s">
-        <v>1336</v>
       </c>
       <c r="GQ432">
         <v>2</v>
@@ -105638,16 +105638,16 @@
     </row>
     <row r="433" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B433" t="s">
         <v>229</v>
       </c>
       <c r="D433" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR433" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="GS433" t="s">
         <v>230</v>
@@ -105659,20 +105659,20 @@
         <v>2</v>
       </c>
       <c r="GV433" t="s">
+        <v>1336</v>
+      </c>
+      <c r="GW433" t="s">
         <v>1337</v>
       </c>
-      <c r="GW433" t="s">
+      <c r="GX433" t="s">
         <v>1338</v>
       </c>
-      <c r="GX433" t="s">
+      <c r="GY433" t="s">
         <v>1339</v>
       </c>
-      <c r="GY433" t="s">
+      <c r="GZ433" t="s">
         <v>1340</v>
       </c>
-      <c r="GZ433" t="s">
-        <v>1341</v>
-      </c>
       <c r="HB433">
         <v>2</v>
       </c>
@@ -105683,7 +105683,7 @@
         <v>1</v>
       </c>
       <c r="HG433" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="HH433">
         <v>0</v>
@@ -105697,7 +105697,7 @@
     </row>
     <row r="434" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B434" t="s">
         <v>222</v>
@@ -105706,7 +105706,7 @@
         <v>1</v>
       </c>
       <c r="D434" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E434">
         <v>2</v>
@@ -106131,16 +106131,16 @@
     </row>
     <row r="435" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B435" t="s">
         <v>224</v>
       </c>
       <c r="D435" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO435" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="EP435" t="s">
         <v>225</v>
@@ -106281,22 +106281,22 @@
         <v>5</v>
       </c>
       <c r="GK435" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="GL435">
         <v>2</v>
       </c>
       <c r="GM435" t="s">
+        <v>1342</v>
+      </c>
+      <c r="GN435" t="s">
         <v>1343</v>
       </c>
-      <c r="GN435" t="s">
+      <c r="GO435" t="s">
         <v>1344</v>
       </c>
-      <c r="GO435" t="s">
-        <v>1345</v>
-      </c>
       <c r="GP435" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="GQ435">
         <v>2</v>
@@ -106304,16 +106304,16 @@
     </row>
     <row r="436" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B436" t="s">
         <v>229</v>
       </c>
       <c r="D436" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR436" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="GS436" t="s">
         <v>230</v>
@@ -106325,22 +106325,22 @@
         <v>2</v>
       </c>
       <c r="GV436" t="s">
+        <v>1345</v>
+      </c>
+      <c r="GW436" t="s">
         <v>1346</v>
       </c>
-      <c r="GW436" t="s">
+      <c r="GX436" t="s">
         <v>1347</v>
       </c>
-      <c r="GX436" t="s">
+      <c r="GY436" t="s">
         <v>1348</v>
       </c>
-      <c r="GY436" t="s">
+      <c r="GZ436" t="s">
         <v>1349</v>
       </c>
-      <c r="GZ436" t="s">
-        <v>1350</v>
-      </c>
       <c r="HA436" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="HB436">
         <v>2</v>
@@ -106352,7 +106352,7 @@
         <v>1</v>
       </c>
       <c r="HG436" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="HH436">
         <v>0</v>
@@ -106366,7 +106366,7 @@
     </row>
     <row r="437" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B437" t="s">
         <v>222</v>
@@ -106375,7 +106375,7 @@
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E437">
         <v>2</v>
@@ -106416,7 +106416,7 @@
     </row>
     <row r="438" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B438" t="s">
         <v>222</v>
@@ -106425,7 +106425,7 @@
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E438">
         <v>2</v>
@@ -106850,16 +106850,16 @@
     </row>
     <row r="439" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B439" t="s">
         <v>224</v>
       </c>
       <c r="D439" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO439" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="EP439" t="s">
         <v>225</v>
@@ -107000,19 +107000,19 @@
         <v>5</v>
       </c>
       <c r="GK439" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="GL439">
         <v>2</v>
       </c>
       <c r="GM439" t="s">
+        <v>1351</v>
+      </c>
+      <c r="GN439" t="s">
         <v>1352</v>
       </c>
-      <c r="GN439" t="s">
+      <c r="GO439" t="s">
         <v>1353</v>
-      </c>
-      <c r="GO439" t="s">
-        <v>1354</v>
       </c>
       <c r="GQ439">
         <v>2</v>
@@ -107020,16 +107020,16 @@
     </row>
     <row r="440" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B440" t="s">
         <v>229</v>
       </c>
       <c r="D440" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR440" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="GS440" t="s">
         <v>225</v>
@@ -107041,20 +107041,20 @@
         <v>2</v>
       </c>
       <c r="GV440" t="s">
+        <v>1354</v>
+      </c>
+      <c r="GW440" t="s">
         <v>1355</v>
       </c>
-      <c r="GW440" t="s">
+      <c r="GX440" t="s">
         <v>1356</v>
       </c>
-      <c r="GX440" t="s">
+      <c r="GY440" t="s">
         <v>1357</v>
       </c>
-      <c r="GY440" t="s">
+      <c r="GZ440" t="s">
         <v>1358</v>
       </c>
-      <c r="GZ440" t="s">
-        <v>1359</v>
-      </c>
       <c r="HB440">
         <v>2</v>
       </c>
@@ -107065,7 +107065,7 @@
         <v>1</v>
       </c>
       <c r="HG440" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="HH440">
         <v>0</v>
@@ -107079,7 +107079,7 @@
     </row>
     <row r="441" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B441" t="s">
         <v>222</v>
@@ -107088,7 +107088,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E441">
         <v>2</v>
@@ -107513,16 +107513,16 @@
     </row>
     <row r="442" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B442" t="s">
         <v>224</v>
       </c>
       <c r="D442" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO442" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="EP442" t="s">
         <v>458</v>
@@ -107666,13 +107666,13 @@
         <v>2</v>
       </c>
       <c r="GM442" t="s">
+        <v>1360</v>
+      </c>
+      <c r="GN442" t="s">
         <v>1361</v>
       </c>
-      <c r="GN442" t="s">
+      <c r="GO442" t="s">
         <v>1362</v>
-      </c>
-      <c r="GO442" t="s">
-        <v>1363</v>
       </c>
       <c r="GQ442">
         <v>2</v>
@@ -107680,16 +107680,16 @@
     </row>
     <row r="443" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B443" t="s">
         <v>229</v>
       </c>
       <c r="D443" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR443" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="GS443" t="s">
         <v>458</v>
@@ -107701,20 +107701,20 @@
         <v>2</v>
       </c>
       <c r="GV443" t="s">
+        <v>1363</v>
+      </c>
+      <c r="GW443" t="s">
         <v>1364</v>
       </c>
-      <c r="GW443" t="s">
+      <c r="GX443" t="s">
         <v>1365</v>
       </c>
-      <c r="GX443" t="s">
+      <c r="GY443" t="s">
         <v>1366</v>
       </c>
-      <c r="GY443" t="s">
+      <c r="GZ443" t="s">
         <v>1367</v>
       </c>
-      <c r="GZ443" t="s">
-        <v>1368</v>
-      </c>
       <c r="HB443">
         <v>2</v>
       </c>
@@ -107722,13 +107722,13 @@
         <v>1</v>
       </c>
       <c r="HD443" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="HE443">
         <v>1</v>
       </c>
       <c r="HG443" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="HH443">
         <v>0</v>
@@ -107742,7 +107742,7 @@
     </row>
     <row r="444" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B444" t="s">
         <v>222</v>
@@ -107751,7 +107751,7 @@
         <v>1</v>
       </c>
       <c r="D444" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E444">
         <v>2</v>
@@ -107792,7 +107792,7 @@
     </row>
     <row r="445" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B445" t="s">
         <v>222</v>
@@ -107801,7 +107801,7 @@
         <v>1</v>
       </c>
       <c r="D445" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E445">
         <v>2</v>
@@ -108226,16 +108226,16 @@
     </row>
     <row r="446" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B446" t="s">
         <v>224</v>
       </c>
       <c r="D446" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO446" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="EP446" t="s">
         <v>458</v>
@@ -108379,16 +108379,16 @@
         <v>2</v>
       </c>
       <c r="GM446" t="s">
+        <v>1370</v>
+      </c>
+      <c r="GN446" t="s">
         <v>1371</v>
       </c>
-      <c r="GN446" t="s">
+      <c r="GO446" t="s">
         <v>1372</v>
       </c>
-      <c r="GO446" t="s">
-        <v>1373</v>
-      </c>
       <c r="GP446" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="GQ446">
         <v>2</v>
@@ -108396,16 +108396,16 @@
     </row>
     <row r="447" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B447" t="s">
         <v>229</v>
       </c>
       <c r="D447" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR447" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="GS447" t="s">
         <v>458</v>
@@ -108417,20 +108417,20 @@
         <v>2</v>
       </c>
       <c r="GV447" t="s">
+        <v>1373</v>
+      </c>
+      <c r="GW447" t="s">
         <v>1374</v>
       </c>
-      <c r="GW447" t="s">
+      <c r="GX447" t="s">
         <v>1375</v>
       </c>
-      <c r="GX447" t="s">
+      <c r="GY447" t="s">
         <v>1376</v>
       </c>
-      <c r="GY447" t="s">
+      <c r="GZ447" t="s">
         <v>1377</v>
       </c>
-      <c r="GZ447" t="s">
-        <v>1378</v>
-      </c>
       <c r="HB447">
         <v>2</v>
       </c>
@@ -108441,7 +108441,7 @@
         <v>1</v>
       </c>
       <c r="HG447" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="HH447">
         <v>0</v>
@@ -108455,7 +108455,7 @@
     </row>
     <row r="448" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B448" t="s">
         <v>222</v>
@@ -108464,7 +108464,7 @@
         <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E448">
         <v>2</v>
@@ -108889,16 +108889,16 @@
     </row>
     <row r="449" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B449" t="s">
         <v>224</v>
       </c>
       <c r="D449" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="EO449" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="EP449" t="s">
         <v>458</v>
@@ -109039,19 +109039,19 @@
         <v>5</v>
       </c>
       <c r="GK449" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="GL449">
         <v>2</v>
       </c>
       <c r="GM449" t="s">
+        <v>1379</v>
+      </c>
+      <c r="GN449" t="s">
         <v>1380</v>
       </c>
-      <c r="GN449" t="s">
+      <c r="GO449" t="s">
         <v>1381</v>
-      </c>
-      <c r="GO449" t="s">
-        <v>1382</v>
       </c>
       <c r="GQ449">
         <v>2</v>
@@ -109059,16 +109059,16 @@
     </row>
     <row r="450" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B450" t="s">
         <v>229</v>
       </c>
       <c r="D450" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="GR450" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="GS450" t="s">
         <v>225</v>
@@ -109080,20 +109080,20 @@
         <v>2</v>
       </c>
       <c r="GV450" t="s">
+        <v>1382</v>
+      </c>
+      <c r="GW450" t="s">
         <v>1383</v>
       </c>
-      <c r="GW450" t="s">
+      <c r="GX450" t="s">
         <v>1384</v>
       </c>
-      <c r="GX450" t="s">
+      <c r="GY450" t="s">
         <v>1385</v>
       </c>
-      <c r="GY450" t="s">
+      <c r="GZ450" t="s">
         <v>1386</v>
       </c>
-      <c r="GZ450" t="s">
-        <v>1387</v>
-      </c>
       <c r="HB450">
         <v>2</v>
       </c>
@@ -109101,13 +109101,13 @@
         <v>1</v>
       </c>
       <c r="HD450" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="HE450">
         <v>1</v>
       </c>
       <c r="HG450" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="HH450">
         <v>0</v>
@@ -109121,7 +109121,7 @@
     </row>
     <row r="451" spans="1:222" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B451" t="s">
         <v>222</v>
@@ -109130,7 +109130,7 @@
         <v>1</v>
       </c>
       <c r="D451" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E451">
         <v>2</v>
